--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -7,7 +7,7 @@
   </sheets>
   <definedNames>
     <definedName name="GeocodeAddressColumn_Sheet1">Sheet1!$F$1</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$J$231</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$J$245</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
@@ -25,12 +25,42 @@
 Sorry, no results were found for this address. Please retry by reformulating it or looking for wider results.</t>
       </text>
     </comment>
+    <comment authorId="0" ref="H237">
+      <text>
+        <t xml:space="preserve">Geocode : 
+Sorry, no results were found for this address. Please retry by reformulating it or looking for wider results.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H239">
+      <text>
+        <t xml:space="preserve">Geocode : 
+Sorry, no results were found for this address. Please retry by reformulating it or looking for wider results.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H240">
+      <text>
+        <t xml:space="preserve">Geocode : 
+Sorry, no results were found for this address. Please retry by reformulating it or looking for wider results.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H241">
+      <text>
+        <t xml:space="preserve">Geocode : 
+Sorry, no results were found for this address. Please retry by reformulating it or looking for wider results.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H242">
+      <text>
+        <t xml:space="preserve">Geocode : 
+Sorry, no results were found for this address. Please retry by reformulating it or looking for wider results.</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="270">
   <si>
     <t>Start Date</t>
   </si>
@@ -804,6 +834,45 @@
   </si>
   <si>
     <t>Hallie Ford Fellows Traveling Exhibit</t>
+  </si>
+  <si>
+    <t>La Grande</t>
+  </si>
+  <si>
+    <t>Ford Scholars Interviews</t>
+  </si>
+  <si>
+    <t>Ashland</t>
+  </si>
+  <si>
+    <t>Lake Oswego</t>
+  </si>
+  <si>
+    <t>Scholarship Staff</t>
+  </si>
+  <si>
+    <t>Ford Opportunity Interviews</t>
+  </si>
+  <si>
+    <t>Pre-Board Meeting for May Board Meeting</t>
+  </si>
+  <si>
+    <t>Networking Learning Exchange (4/26-4/27)</t>
+  </si>
+  <si>
+    <t>Board Book Assembly 4/29-5/02</t>
+  </si>
+  <si>
+    <t>Philadelphia</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>FFOG (Foundation Financial Officers Group) Conference</t>
+  </si>
+  <si>
+    <t>Ford ReStart Interviews</t>
   </si>
 </sst>
 </file>
@@ -936,7 +1005,7 @@
         <v>12</v>
       </c>
       <c r="F2" t="str">
-        <f t="shared" ref="F2:F231" si="1">D2&amp;" "&amp;E2</f>
+        <f t="shared" ref="F2:F245" si="1">D2&amp;" "&amp;E2</f>
         <v>Woodburn Oregon</v>
       </c>
       <c r="G2" s="2">
@@ -7820,157 +7889,389 @@
       <c r="J231" s="2"/>
     </row>
     <row r="232">
-      <c r="A232" s="1"/>
-      <c r="B232" s="1"/>
-      <c r="C232" s="2"/>
-      <c r="D232" s="2"/>
-      <c r="E232" s="2"/>
-      <c r="G232" s="2"/>
-      <c r="H232" s="2"/>
+      <c r="A232" s="1">
+        <v>43564.0</v>
+      </c>
+      <c r="B232" s="1">
+        <v>43567.0</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F232" t="str">
+        <f t="shared" si="1"/>
+        <v>Roseburg Oregon</v>
+      </c>
+      <c r="G232" s="2">
+        <v>43.216505</v>
+      </c>
+      <c r="H232" s="2">
+        <v>-123.3417381</v>
+      </c>
       <c r="I232" s="2"/>
       <c r="J232" s="2"/>
     </row>
     <row r="233">
-      <c r="A233" s="1"/>
-      <c r="B233" s="1"/>
-      <c r="C233" s="2"/>
-      <c r="D233" s="2"/>
-      <c r="E233" s="2"/>
-      <c r="G233" s="2"/>
-      <c r="H233" s="2"/>
-      <c r="I233" s="2"/>
+      <c r="A233" s="1">
+        <v>43571.0</v>
+      </c>
+      <c r="B233" s="1">
+        <v>43574.0</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F233" t="str">
+        <f t="shared" si="1"/>
+        <v>La Grande Oregon</v>
+      </c>
+      <c r="G233" s="2">
+        <v>45.3245771</v>
+      </c>
+      <c r="H233" s="2">
+        <v>-118.0877188</v>
+      </c>
+      <c r="I233" s="2" t="s">
+        <v>258</v>
+      </c>
       <c r="J233" s="2"/>
     </row>
     <row r="234">
-      <c r="A234" s="1"/>
-      <c r="B234" s="1"/>
-      <c r="C234" s="2"/>
-      <c r="D234" s="2"/>
-      <c r="E234" s="2"/>
-      <c r="G234" s="2"/>
-      <c r="H234" s="2"/>
-      <c r="I234" s="2"/>
+      <c r="A234" s="1">
+        <v>43571.0</v>
+      </c>
+      <c r="B234" s="1">
+        <v>43574.0</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F234" t="str">
+        <f t="shared" si="1"/>
+        <v>Ashland Oregon</v>
+      </c>
+      <c r="G234" s="2">
+        <v>42.1945758</v>
+      </c>
+      <c r="H234" s="2">
+        <v>-122.7094767</v>
+      </c>
+      <c r="I234" s="2" t="s">
+        <v>258</v>
+      </c>
       <c r="J234" s="2"/>
     </row>
     <row r="235">
-      <c r="A235" s="1"/>
-      <c r="B235" s="1"/>
-      <c r="C235" s="2"/>
-      <c r="D235" s="2"/>
-      <c r="E235" s="2"/>
-      <c r="G235" s="2"/>
-      <c r="H235" s="2"/>
-      <c r="I235" s="2"/>
+      <c r="A235" s="1">
+        <v>43578.0</v>
+      </c>
+      <c r="B235" s="1">
+        <v>43580.0</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E235" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F235" t="str">
+        <f t="shared" si="1"/>
+        <v>Lake Oswego Oregon</v>
+      </c>
+      <c r="G235" s="2">
+        <v>45.4156817</v>
+      </c>
+      <c r="H235" s="2">
+        <v>-122.7159726</v>
+      </c>
+      <c r="I235" s="2" t="s">
+        <v>258</v>
+      </c>
       <c r="J235" s="2"/>
     </row>
     <row r="236">
-      <c r="A236" s="1"/>
-      <c r="B236" s="1"/>
-      <c r="C236" s="2"/>
-      <c r="D236" s="2"/>
-      <c r="E236" s="2"/>
-      <c r="G236" s="2"/>
-      <c r="H236" s="2"/>
-      <c r="I236" s="2"/>
+      <c r="A236" s="1">
+        <v>43578.0</v>
+      </c>
+      <c r="B236" s="1">
+        <v>43581.0</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E236" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F236" t="str">
+        <f t="shared" si="1"/>
+        <v>Eugene Oregon</v>
+      </c>
+      <c r="G236" s="2">
+        <v>44.0520691</v>
+      </c>
+      <c r="H236" s="2">
+        <v>-123.0867536</v>
+      </c>
+      <c r="I236" s="2" t="s">
+        <v>262</v>
+      </c>
       <c r="J236" s="2"/>
     </row>
     <row r="237">
-      <c r="A237" s="1"/>
-      <c r="B237" s="1"/>
-      <c r="C237" s="2"/>
+      <c r="A237" s="1">
+        <v>43578.0</v>
+      </c>
+      <c r="B237" s="1">
+        <v>43578.0</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="D237" s="2"/>
-      <c r="E237" s="2"/>
-      <c r="G237" s="2"/>
-      <c r="H237" s="2"/>
-      <c r="I237" s="2"/>
+      <c r="F237" t="str">
+        <f t="shared" si="1"/>
+        <v> </v>
+      </c>
+      <c r="G237" s="3"/>
+      <c r="H237" s="3"/>
+      <c r="I237" s="2" t="s">
+        <v>263</v>
+      </c>
       <c r="J237" s="2"/>
     </row>
     <row r="238">
-      <c r="A238" s="1"/>
-      <c r="B238" s="1"/>
-      <c r="C238" s="2"/>
-      <c r="D238" s="2"/>
-      <c r="E238" s="2"/>
-      <c r="G238" s="2"/>
-      <c r="H238" s="2"/>
-      <c r="I238" s="2"/>
+      <c r="A238" s="1">
+        <v>43579.0</v>
+      </c>
+      <c r="B238" s="1">
+        <v>43579.0</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F238" t="str">
+        <f t="shared" si="1"/>
+        <v>Eugene Oregon</v>
+      </c>
+      <c r="G238" s="2">
+        <v>44.0520691</v>
+      </c>
+      <c r="H238" s="2">
+        <v>-123.0867536</v>
+      </c>
+      <c r="I238" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="J238" s="2"/>
     </row>
     <row r="239">
-      <c r="A239" s="1"/>
-      <c r="B239" s="1"/>
-      <c r="C239" s="2"/>
+      <c r="A239" s="1">
+        <v>43580.0</v>
+      </c>
+      <c r="B239" s="1">
+        <v>43215.0</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="D239" s="2"/>
-      <c r="E239" s="2"/>
-      <c r="G239" s="2"/>
-      <c r="H239" s="2"/>
-      <c r="I239" s="2"/>
+      <c r="F239" t="str">
+        <f t="shared" si="1"/>
+        <v> </v>
+      </c>
+      <c r="G239" s="3"/>
+      <c r="H239" s="3"/>
+      <c r="I239" s="2" t="s">
+        <v>183</v>
+      </c>
       <c r="J239" s="2"/>
     </row>
     <row r="240">
-      <c r="A240" s="1"/>
-      <c r="B240" s="1"/>
-      <c r="C240" s="2"/>
-      <c r="D240" s="2"/>
-      <c r="E240" s="2"/>
-      <c r="G240" s="2"/>
-      <c r="H240" s="2"/>
-      <c r="I240" s="2"/>
+      <c r="A240" s="1">
+        <v>43581.0</v>
+      </c>
+      <c r="B240" s="1">
+        <v>43582.0</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F240" t="str">
+        <f t="shared" si="1"/>
+        <v> </v>
+      </c>
+      <c r="G240" s="3"/>
+      <c r="H240" s="3"/>
+      <c r="I240" s="2" t="s">
+        <v>264</v>
+      </c>
       <c r="J240" s="2"/>
     </row>
     <row r="241">
-      <c r="A241" s="1"/>
-      <c r="B241" s="1"/>
-      <c r="C241" s="2"/>
+      <c r="A241" s="1">
+        <v>43581.0</v>
+      </c>
+      <c r="B241" s="1">
+        <v>43581.0</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="D241" s="2"/>
-      <c r="E241" s="2"/>
-      <c r="G241" s="2"/>
-      <c r="H241" s="2"/>
-      <c r="I241" s="2"/>
+      <c r="F241" t="str">
+        <f t="shared" si="1"/>
+        <v> </v>
+      </c>
+      <c r="G241" s="3"/>
+      <c r="H241" s="3"/>
+      <c r="I241" s="2" t="s">
+        <v>189</v>
+      </c>
       <c r="J241" s="2"/>
     </row>
     <row r="242">
-      <c r="A242" s="1"/>
-      <c r="B242" s="1"/>
-      <c r="C242" s="2"/>
+      <c r="A242" s="1">
+        <v>43584.0</v>
+      </c>
+      <c r="B242" s="1">
+        <v>43587.0</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="D242" s="2"/>
-      <c r="E242" s="2"/>
-      <c r="G242" s="2"/>
-      <c r="H242" s="2"/>
-      <c r="I242" s="2"/>
+      <c r="F242" t="str">
+        <f t="shared" si="1"/>
+        <v> </v>
+      </c>
+      <c r="G242" s="3"/>
+      <c r="H242" s="3"/>
+      <c r="I242" s="2" t="s">
+        <v>265</v>
+      </c>
       <c r="J242" s="2"/>
     </row>
     <row r="243">
-      <c r="A243" s="1"/>
-      <c r="B243" s="1"/>
-      <c r="C243" s="2"/>
-      <c r="D243" s="2"/>
-      <c r="E243" s="2"/>
-      <c r="G243" s="2"/>
-      <c r="H243" s="2"/>
-      <c r="I243" s="2"/>
+      <c r="A243" s="1">
+        <v>43584.0</v>
+      </c>
+      <c r="B243" s="1">
+        <v>43587.0</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F243" t="str">
+        <f t="shared" si="1"/>
+        <v>Eugene Oregon</v>
+      </c>
+      <c r="G243" s="2">
+        <v>44.0520691</v>
+      </c>
+      <c r="H243" s="2">
+        <v>-123.0867536</v>
+      </c>
+      <c r="I243" s="2" t="s">
+        <v>258</v>
+      </c>
       <c r="J243" s="2"/>
     </row>
     <row r="244">
-      <c r="A244" s="1"/>
-      <c r="B244" s="1"/>
-      <c r="C244" s="2"/>
-      <c r="D244" s="2"/>
-      <c r="E244" s="2"/>
-      <c r="G244" s="2"/>
-      <c r="H244" s="2"/>
-      <c r="I244" s="2"/>
+      <c r="A244" s="1">
+        <v>43585.0</v>
+      </c>
+      <c r="B244" s="1">
+        <v>43585.0</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E244" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F244" t="str">
+        <f t="shared" si="1"/>
+        <v>Philadelphia PA</v>
+      </c>
+      <c r="G244" s="2">
+        <v>39.9525839</v>
+      </c>
+      <c r="H244" s="2">
+        <v>-75.1652215</v>
+      </c>
+      <c r="I244" s="2" t="s">
+        <v>268</v>
+      </c>
       <c r="J244" s="2"/>
     </row>
     <row r="245">
-      <c r="A245" s="1"/>
-      <c r="B245" s="1"/>
-      <c r="C245" s="2"/>
-      <c r="D245" s="2"/>
-      <c r="E245" s="2"/>
-      <c r="G245" s="2"/>
-      <c r="H245" s="2"/>
-      <c r="I245" s="2"/>
+      <c r="A245" s="1">
+        <v>43592.0</v>
+      </c>
+      <c r="B245" s="1">
+        <v>43595.0</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E245" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F245" t="str">
+        <f t="shared" si="1"/>
+        <v>Eugene Oregon</v>
+      </c>
+      <c r="G245" s="2">
+        <v>44.0520691</v>
+      </c>
+      <c r="H245" s="2">
+        <v>-123.0867536</v>
+      </c>
+      <c r="I245" s="2" t="s">
+        <v>269</v>
+      </c>
       <c r="J245" s="2"/>
     </row>
     <row r="246">
@@ -17708,8 +18009,19 @@
       <c r="I1130" s="2"/>
       <c r="J1130" s="2"/>
     </row>
+    <row r="1131">
+      <c r="A1131" s="1"/>
+      <c r="B1131" s="1"/>
+      <c r="C1131" s="2"/>
+      <c r="D1131" s="2"/>
+      <c r="E1131" s="2"/>
+      <c r="G1131" s="2"/>
+      <c r="H1131" s="2"/>
+      <c r="I1131" s="2"/>
+      <c r="J1131" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="$A$1:$J$231"/>
+  <autoFilter ref="$A$1:$J$245"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -7,7 +7,7 @@
   </sheets>
   <definedNames>
     <definedName name="GeocodeAddressColumn_Sheet1">Sheet1!$F$1</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$J$245</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$J$255</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
@@ -55,12 +55,30 @@
 Sorry, no results were found for this address. Please retry by reformulating it or looking for wider results.</t>
       </text>
     </comment>
+    <comment authorId="0" ref="H248">
+      <text>
+        <t xml:space="preserve">Geocode : 
+Sorry, no results were found for this address. Please retry by reformulating it or looking for wider results.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H250">
+      <text>
+        <t xml:space="preserve">Geocode : 
+Sorry, no results were found for this address. Please retry by reformulating it or looking for wider results.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H253">
+      <text>
+        <t xml:space="preserve">Geocode : 
+Sorry, no results were found for this address. Please retry by reformulating it or looking for wider results.</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="280">
   <si>
     <t>Start Date</t>
   </si>
@@ -873,6 +891,36 @@
   </si>
   <si>
     <t>Ford ReStart Interviews</t>
+  </si>
+  <si>
+    <t>TFFF Board/Committee Meetings (5/9-5/10) - Arlington Club</t>
+  </si>
+  <si>
+    <t>Hallie Ford Visual Arts Selection Panel</t>
+  </si>
+  <si>
+    <t>Max/Katie</t>
+  </si>
+  <si>
+    <t>Vision through Action Learning Tour (5/16-5/18)</t>
+  </si>
+  <si>
+    <t>Silverton</t>
+  </si>
+  <si>
+    <t>Working Team 7 Session 3 - Latino focused working team</t>
+  </si>
+  <si>
+    <t>Oregon Parenting Education Collaborative Parent Educators' Conference</t>
+  </si>
+  <si>
+    <t>Community Building in Action Learning Partnership (5/30-5/31)</t>
+  </si>
+  <si>
+    <t>Annual Protect Our Children conference</t>
+  </si>
+  <si>
+    <t>Annual Public-Private Collaborations in Rural Health meeting</t>
   </si>
 </sst>
 </file>
@@ -1005,7 +1053,7 @@
         <v>12</v>
       </c>
       <c r="F2" t="str">
-        <f t="shared" ref="F2:F245" si="1">D2&amp;" "&amp;E2</f>
+        <f t="shared" ref="F2:F255" si="1">D2&amp;" "&amp;E2</f>
         <v>Woodburn Oregon</v>
       </c>
       <c r="G2" s="2">
@@ -8275,113 +8323,283 @@
       <c r="J245" s="2"/>
     </row>
     <row r="246">
-      <c r="A246" s="1"/>
-      <c r="B246" s="1"/>
-      <c r="C246" s="2"/>
-      <c r="D246" s="2"/>
-      <c r="E246" s="2"/>
-      <c r="G246" s="2"/>
-      <c r="H246" s="2"/>
-      <c r="I246" s="2"/>
+      <c r="A246" s="1">
+        <v>43594.0</v>
+      </c>
+      <c r="B246" s="1">
+        <v>43595.0</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E246" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F246" t="str">
+        <f t="shared" si="1"/>
+        <v>Portland Oregon</v>
+      </c>
+      <c r="G246" s="2">
+        <v>45.5122308</v>
+      </c>
+      <c r="H246" s="2">
+        <v>-122.6587185</v>
+      </c>
+      <c r="I246" s="2" t="s">
+        <v>270</v>
+      </c>
       <c r="J246" s="2"/>
     </row>
     <row r="247">
-      <c r="A247" s="1"/>
-      <c r="B247" s="1"/>
-      <c r="C247" s="2"/>
-      <c r="D247" s="2"/>
-      <c r="E247" s="2"/>
-      <c r="G247" s="2"/>
-      <c r="H247" s="2"/>
-      <c r="I247" s="2"/>
+      <c r="A247" s="1">
+        <v>43600.0</v>
+      </c>
+      <c r="B247" s="1">
+        <v>43601.0</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E247" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F247" t="str">
+        <f t="shared" si="1"/>
+        <v>Portland Oregon</v>
+      </c>
+      <c r="G247" s="2">
+        <v>45.5122308</v>
+      </c>
+      <c r="H247" s="2">
+        <v>-122.6587185</v>
+      </c>
+      <c r="I247" s="2" t="s">
+        <v>271</v>
+      </c>
       <c r="J247" s="2"/>
     </row>
     <row r="248">
-      <c r="A248" s="1"/>
-      <c r="B248" s="1"/>
-      <c r="C248" s="2"/>
-      <c r="D248" s="2"/>
-      <c r="E248" s="2"/>
-      <c r="G248" s="2"/>
-      <c r="H248" s="2"/>
-      <c r="I248" s="2"/>
+      <c r="A248" s="1">
+        <v>43601.0</v>
+      </c>
+      <c r="B248" s="1">
+        <v>43603.0</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F248" t="str">
+        <f t="shared" si="1"/>
+        <v> </v>
+      </c>
+      <c r="G248" s="3"/>
+      <c r="H248" s="3"/>
+      <c r="I248" s="2" t="s">
+        <v>273</v>
+      </c>
       <c r="J248" s="2"/>
     </row>
     <row r="249">
-      <c r="A249" s="1"/>
-      <c r="B249" s="1"/>
-      <c r="C249" s="2"/>
-      <c r="D249" s="2"/>
-      <c r="E249" s="2"/>
-      <c r="G249" s="2"/>
-      <c r="H249" s="2"/>
-      <c r="I249" s="2"/>
+      <c r="A249" s="1">
+        <v>43602.0</v>
+      </c>
+      <c r="B249" s="1">
+        <v>43603.0</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E249" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F249" t="str">
+        <f t="shared" si="1"/>
+        <v>Silverton Oregon</v>
+      </c>
+      <c r="G249" s="2">
+        <v>45.0051213</v>
+      </c>
+      <c r="H249" s="2">
+        <v>-122.7831455</v>
+      </c>
+      <c r="I249" s="2" t="s">
+        <v>275</v>
+      </c>
       <c r="J249" s="2"/>
     </row>
     <row r="250">
-      <c r="A250" s="1"/>
-      <c r="B250" s="1"/>
-      <c r="C250" s="2"/>
-      <c r="D250" s="2"/>
-      <c r="E250" s="2"/>
-      <c r="G250" s="2"/>
-      <c r="H250" s="2"/>
-      <c r="I250" s="2"/>
+      <c r="A250" s="1">
+        <v>43604.0</v>
+      </c>
+      <c r="B250" s="1">
+        <v>43605.0</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F250" t="str">
+        <f t="shared" si="1"/>
+        <v> </v>
+      </c>
+      <c r="G250" s="3"/>
+      <c r="H250" s="3"/>
+      <c r="I250" s="2" t="s">
+        <v>276</v>
+      </c>
       <c r="J250" s="2"/>
     </row>
     <row r="251">
-      <c r="A251" s="1"/>
-      <c r="B251" s="1"/>
-      <c r="C251" s="2"/>
-      <c r="D251" s="2"/>
-      <c r="E251" s="2"/>
-      <c r="G251" s="2"/>
-      <c r="H251" s="2"/>
-      <c r="I251" s="2"/>
+      <c r="A251" s="1">
+        <v>43608.0</v>
+      </c>
+      <c r="B251" s="1">
+        <v>43609.0</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E251" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F251" t="str">
+        <f t="shared" si="1"/>
+        <v>Eugene Oregon</v>
+      </c>
+      <c r="G251" s="2">
+        <v>44.0520691</v>
+      </c>
+      <c r="H251" s="2">
+        <v>-123.0867536</v>
+      </c>
+      <c r="I251" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="J251" s="2"/>
     </row>
     <row r="252">
-      <c r="A252" s="1"/>
-      <c r="B252" s="1"/>
-      <c r="C252" s="2"/>
-      <c r="D252" s="2"/>
-      <c r="E252" s="2"/>
-      <c r="G252" s="2"/>
-      <c r="H252" s="2"/>
-      <c r="I252" s="2"/>
+      <c r="A252" s="1">
+        <v>43614.0</v>
+      </c>
+      <c r="B252" s="1">
+        <v>43614.0</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E252" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F252" t="str">
+        <f t="shared" si="1"/>
+        <v>Eugene Oregon</v>
+      </c>
+      <c r="G252" s="2">
+        <v>44.0520691</v>
+      </c>
+      <c r="H252" s="2">
+        <v>-123.0867536</v>
+      </c>
+      <c r="I252" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="J252" s="2"/>
     </row>
     <row r="253">
-      <c r="A253" s="1"/>
-      <c r="B253" s="1"/>
-      <c r="C253" s="2"/>
-      <c r="D253" s="2"/>
-      <c r="E253" s="2"/>
-      <c r="G253" s="2"/>
-      <c r="H253" s="2"/>
-      <c r="I253" s="2"/>
+      <c r="A253" s="1">
+        <v>43615.0</v>
+      </c>
+      <c r="B253" s="1">
+        <v>43616.0</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F253" t="str">
+        <f t="shared" si="1"/>
+        <v> </v>
+      </c>
+      <c r="G253" s="3"/>
+      <c r="H253" s="3"/>
+      <c r="I253" s="2" t="s">
+        <v>277</v>
+      </c>
       <c r="J253" s="2"/>
     </row>
     <row r="254">
-      <c r="A254" s="1"/>
-      <c r="B254" s="1"/>
-      <c r="C254" s="2"/>
-      <c r="D254" s="2"/>
-      <c r="E254" s="2"/>
-      <c r="G254" s="2"/>
-      <c r="H254" s="2"/>
-      <c r="I254" s="2"/>
+      <c r="A254" s="1">
+        <v>43615.0</v>
+      </c>
+      <c r="B254" s="1">
+        <v>43616.0</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E254" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F254" t="str">
+        <f t="shared" si="1"/>
+        <v>Roseburg Oregon</v>
+      </c>
+      <c r="G254" s="2">
+        <v>43.216505</v>
+      </c>
+      <c r="H254" s="2">
+        <v>-123.3417381</v>
+      </c>
+      <c r="I254" s="2" t="s">
+        <v>278</v>
+      </c>
       <c r="J254" s="2"/>
     </row>
     <row r="255">
-      <c r="A255" s="1"/>
-      <c r="B255" s="1"/>
-      <c r="C255" s="2"/>
-      <c r="D255" s="2"/>
-      <c r="E255" s="2"/>
-      <c r="G255" s="2"/>
-      <c r="H255" s="2"/>
-      <c r="I255" s="2"/>
+      <c r="A255" s="1">
+        <v>43615.0</v>
+      </c>
+      <c r="B255" s="1">
+        <v>43616.0</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E255" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F255" t="str">
+        <f t="shared" si="1"/>
+        <v>Washington DC</v>
+      </c>
+      <c r="G255" s="2">
+        <v>38.9071923</v>
+      </c>
+      <c r="H255" s="2">
+        <v>-77.0368707</v>
+      </c>
+      <c r="I255" s="2" t="s">
+        <v>279</v>
+      </c>
       <c r="J255" s="2"/>
     </row>
     <row r="256">
@@ -18021,7 +18239,7 @@
       <c r="J1131" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$J$245"/>
+  <autoFilter ref="$A$1:$J$255"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -7,7 +7,7 @@
   </sheets>
   <definedNames>
     <definedName name="GeocodeAddressColumn_Sheet1">Sheet1!$F$1</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$J$255</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$J$267</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="296">
   <si>
     <t>Start Date</t>
   </si>
@@ -920,7 +920,55 @@
     <t>Annual Protect Our Children conference</t>
   </si>
   <si>
+    <t>Washington D.C.</t>
+  </si>
+  <si>
     <t>Annual Public-Private Collaborations in Rural Health meeting</t>
+  </si>
+  <si>
+    <t>CYF Team</t>
+  </si>
+  <si>
+    <t>McCloud, CA</t>
+  </si>
+  <si>
+    <t>CYF Team Retreat</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>Mary Ward and Community Website Project Group meeting</t>
+  </si>
+  <si>
+    <t>Ford Opportunity &amp; ReStart Recognition Banquet</t>
+  </si>
+  <si>
+    <t>Hallie Ford 2019 Fellow Awards Reception</t>
+  </si>
+  <si>
+    <t>Best Beginnings Committee Meeting</t>
+  </si>
+  <si>
+    <t>Ford Scholar Recognition Banquet</t>
+  </si>
+  <si>
+    <t>Sunriver</t>
+  </si>
+  <si>
+    <t>TFFF Board/Committee Meetings (7/10-7/12) @ Sunriver Lodge</t>
+  </si>
+  <si>
+    <t>Scholarship Staff/Anne/Kasi/Donna</t>
+  </si>
+  <si>
+    <t>Ford Scholar Leadership Conference (7/12 - 7/14)</t>
+  </si>
+  <si>
+    <t>Roque/Max/Yvette/Alicia</t>
+  </si>
+  <si>
+    <t>Working Team 8 Session 1 (Douglas/Coos County focus)</t>
   </si>
 </sst>
 </file>
@@ -1053,7 +1101,7 @@
         <v>12</v>
       </c>
       <c r="F2" t="str">
-        <f t="shared" ref="F2:F255" si="1">D2&amp;" "&amp;E2</f>
+        <f t="shared" ref="F2:F267" si="1">D2&amp;" "&amp;E2</f>
         <v>Woodburn Oregon</v>
       </c>
       <c r="G2" s="2">
@@ -8579,17 +8627,14 @@
         <v>43616.0</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E255" s="2" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="F255" t="str">
         <f t="shared" si="1"/>
-        <v>Washington DC</v>
+        <v>Washington D.C. </v>
       </c>
       <c r="G255" s="2">
         <v>38.9071923</v>
@@ -8598,140 +8643,380 @@
         <v>-77.0368707</v>
       </c>
       <c r="I255" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="J255" s="2"/>
     </row>
     <row r="256">
-      <c r="A256" s="1"/>
-      <c r="B256" s="1"/>
-      <c r="C256" s="2"/>
-      <c r="D256" s="2"/>
-      <c r="E256" s="2"/>
-      <c r="G256" s="2"/>
-      <c r="H256" s="2"/>
-      <c r="I256" s="2"/>
+      <c r="A256" s="1">
+        <v>43625.0</v>
+      </c>
+      <c r="B256" s="1">
+        <v>43627.0</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E256" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F256" t="str">
+        <f t="shared" si="1"/>
+        <v>McCloud, CA CA</v>
+      </c>
+      <c r="G256" s="2">
+        <v>41.2557119</v>
+      </c>
+      <c r="H256" s="2">
+        <v>-122.1394487</v>
+      </c>
+      <c r="I256" s="2" t="s">
+        <v>283</v>
+      </c>
       <c r="J256" s="2"/>
     </row>
     <row r="257">
-      <c r="A257" s="1"/>
-      <c r="B257" s="1"/>
-      <c r="C257" s="2"/>
-      <c r="D257" s="2"/>
-      <c r="E257" s="2"/>
-      <c r="G257" s="2"/>
-      <c r="H257" s="2"/>
-      <c r="I257" s="2"/>
+      <c r="A257" s="1">
+        <v>43628.0</v>
+      </c>
+      <c r="B257" s="1">
+        <v>43628.0</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E257" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F257" t="str">
+        <f t="shared" si="1"/>
+        <v>Ashland OR</v>
+      </c>
+      <c r="G257" s="2">
+        <v>42.1945758</v>
+      </c>
+      <c r="H257" s="2">
+        <v>-122.7094767</v>
+      </c>
+      <c r="I257" s="2" t="s">
+        <v>285</v>
+      </c>
       <c r="J257" s="2"/>
     </row>
     <row r="258">
-      <c r="A258" s="1"/>
-      <c r="B258" s="1"/>
-      <c r="C258" s="2"/>
-      <c r="D258" s="2"/>
-      <c r="E258" s="2"/>
-      <c r="G258" s="2"/>
-      <c r="H258" s="2"/>
-      <c r="I258" s="2"/>
+      <c r="A258" s="1">
+        <v>43631.0</v>
+      </c>
+      <c r="B258" s="1">
+        <v>43631.0</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E258" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F258" t="str">
+        <f t="shared" si="1"/>
+        <v>Eugene OR</v>
+      </c>
+      <c r="G258" s="2">
+        <v>44.0520691</v>
+      </c>
+      <c r="H258" s="2">
+        <v>-123.0867536</v>
+      </c>
+      <c r="I258" s="2" t="s">
+        <v>286</v>
+      </c>
       <c r="J258" s="2"/>
     </row>
     <row r="259">
-      <c r="A259" s="1"/>
-      <c r="B259" s="1"/>
-      <c r="C259" s="2"/>
-      <c r="D259" s="2"/>
-      <c r="E259" s="2"/>
-      <c r="G259" s="2"/>
-      <c r="H259" s="2"/>
-      <c r="I259" s="2"/>
+      <c r="A259" s="1">
+        <v>43635.0</v>
+      </c>
+      <c r="B259" s="1">
+        <v>43635.0</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E259" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F259" t="str">
+        <f t="shared" si="1"/>
+        <v>Portland OR</v>
+      </c>
+      <c r="G259" s="2">
+        <v>45.5122308</v>
+      </c>
+      <c r="H259" s="2">
+        <v>-122.6587185</v>
+      </c>
+      <c r="I259" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="J259" s="2"/>
     </row>
     <row r="260">
-      <c r="A260" s="1"/>
-      <c r="B260" s="1"/>
-      <c r="C260" s="2"/>
-      <c r="D260" s="2"/>
-      <c r="E260" s="2"/>
-      <c r="G260" s="2"/>
-      <c r="H260" s="2"/>
-      <c r="I260" s="2"/>
+      <c r="A260" s="1">
+        <v>43636.0</v>
+      </c>
+      <c r="B260" s="1">
+        <v>43636.0</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E260" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F260" t="str">
+        <f t="shared" si="1"/>
+        <v>Wilsonville OR</v>
+      </c>
+      <c r="G260" s="2">
+        <v>45.3029903</v>
+      </c>
+      <c r="H260" s="2">
+        <v>-122.7726501</v>
+      </c>
+      <c r="I260" s="2" t="s">
+        <v>288</v>
+      </c>
       <c r="J260" s="2"/>
     </row>
     <row r="261">
-      <c r="A261" s="1"/>
-      <c r="B261" s="1"/>
-      <c r="C261" s="2"/>
-      <c r="D261" s="2"/>
-      <c r="E261" s="2"/>
-      <c r="G261" s="2"/>
-      <c r="H261" s="2"/>
-      <c r="I261" s="2"/>
+      <c r="A261" s="1">
+        <v>43643.0</v>
+      </c>
+      <c r="B261" s="1">
+        <v>43644.0</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E261" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F261" t="str">
+        <f t="shared" si="1"/>
+        <v>Eugene OR</v>
+      </c>
+      <c r="G261" s="2">
+        <v>44.0520691</v>
+      </c>
+      <c r="H261" s="2">
+        <v>-123.0867536</v>
+      </c>
+      <c r="I261" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="J261" s="2"/>
     </row>
     <row r="262">
-      <c r="A262" s="1"/>
-      <c r="B262" s="1"/>
-      <c r="C262" s="2"/>
-      <c r="D262" s="2"/>
-      <c r="E262" s="2"/>
-      <c r="G262" s="2"/>
-      <c r="H262" s="2"/>
-      <c r="I262" s="2"/>
+      <c r="A262" s="1">
+        <v>43642.0</v>
+      </c>
+      <c r="B262" s="1">
+        <v>43642.0</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E262" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F262" t="str">
+        <f t="shared" si="1"/>
+        <v>Eugene OR</v>
+      </c>
+      <c r="G262" s="2">
+        <v>44.0520691</v>
+      </c>
+      <c r="H262" s="2">
+        <v>-123.0867536</v>
+      </c>
+      <c r="I262" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="J262" s="2"/>
     </row>
     <row r="263">
-      <c r="A263" s="1"/>
-      <c r="B263" s="1"/>
-      <c r="C263" s="2"/>
-      <c r="D263" s="2"/>
-      <c r="E263" s="2"/>
-      <c r="G263" s="2"/>
-      <c r="H263" s="2"/>
-      <c r="I263" s="2"/>
+      <c r="A263" s="1">
+        <v>43645.0</v>
+      </c>
+      <c r="B263" s="1">
+        <v>43646.0</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E263" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F263" t="str">
+        <f t="shared" si="1"/>
+        <v>Eugene OR</v>
+      </c>
+      <c r="G263" s="2">
+        <v>44.0520691</v>
+      </c>
+      <c r="H263" s="2">
+        <v>-123.0867536</v>
+      </c>
+      <c r="I263" s="2" t="s">
+        <v>289</v>
+      </c>
       <c r="J263" s="2"/>
     </row>
     <row r="264">
-      <c r="A264" s="1"/>
-      <c r="B264" s="1"/>
-      <c r="C264" s="2"/>
-      <c r="D264" s="2"/>
-      <c r="E264" s="2"/>
-      <c r="G264" s="2"/>
-      <c r="H264" s="2"/>
-      <c r="I264" s="2"/>
+      <c r="A264" s="1">
+        <v>43656.0</v>
+      </c>
+      <c r="B264" s="1">
+        <v>43658.0</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E264" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F264" t="str">
+        <f t="shared" si="1"/>
+        <v>Sunriver OR</v>
+      </c>
+      <c r="G264" s="2">
+        <v>43.8693935</v>
+      </c>
+      <c r="H264" s="2">
+        <v>-121.4333539</v>
+      </c>
+      <c r="I264" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="J264" s="2"/>
     </row>
     <row r="265">
-      <c r="A265" s="1"/>
-      <c r="B265" s="1"/>
-      <c r="C265" s="2"/>
-      <c r="D265" s="2"/>
-      <c r="E265" s="2"/>
-      <c r="G265" s="2"/>
-      <c r="H265" s="2"/>
-      <c r="I265" s="2"/>
+      <c r="A265" s="1">
+        <v>43658.0</v>
+      </c>
+      <c r="B265" s="1">
+        <v>43660.0</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D265" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E265" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F265" t="str">
+        <f t="shared" si="1"/>
+        <v>Sunriver OR</v>
+      </c>
+      <c r="G265" s="2">
+        <v>43.8693935</v>
+      </c>
+      <c r="H265" s="2">
+        <v>-121.4333539</v>
+      </c>
+      <c r="I265" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="J265" s="2"/>
     </row>
     <row r="266">
-      <c r="A266" s="1"/>
-      <c r="B266" s="1"/>
-      <c r="C266" s="2"/>
-      <c r="D266" s="2"/>
-      <c r="E266" s="2"/>
-      <c r="G266" s="2"/>
-      <c r="H266" s="2"/>
-      <c r="I266" s="2"/>
+      <c r="A266" s="1">
+        <v>43664.0</v>
+      </c>
+      <c r="B266" s="1">
+        <v>43664.0</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E266" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F266" t="str">
+        <f t="shared" si="1"/>
+        <v>Wilsonville OR</v>
+      </c>
+      <c r="G266" s="2">
+        <v>45.3029903</v>
+      </c>
+      <c r="H266" s="2">
+        <v>-122.7726501</v>
+      </c>
+      <c r="I266" s="2" t="s">
+        <v>288</v>
+      </c>
       <c r="J266" s="2"/>
     </row>
     <row r="267">
-      <c r="A267" s="1"/>
-      <c r="B267" s="1"/>
-      <c r="C267" s="2"/>
-      <c r="D267" s="2"/>
-      <c r="E267" s="2"/>
-      <c r="G267" s="2"/>
-      <c r="H267" s="2"/>
-      <c r="I267" s="2"/>
+      <c r="A267" s="1">
+        <v>43665.0</v>
+      </c>
+      <c r="B267" s="1">
+        <v>43666.0</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E267" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F267" t="str">
+        <f t="shared" si="1"/>
+        <v>Roseburg OR</v>
+      </c>
+      <c r="G267" s="2">
+        <v>43.216505</v>
+      </c>
+      <c r="H267" s="2">
+        <v>-123.3417381</v>
+      </c>
+      <c r="I267" s="2" t="s">
+        <v>295</v>
+      </c>
       <c r="J267" s="2"/>
     </row>
     <row r="268">
@@ -18239,7 +18524,7 @@
       <c r="J1131" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$J$255"/>
+  <autoFilter ref="$A$1:$J$267"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -7,7 +7,7 @@
   </sheets>
   <definedNames>
     <definedName name="GeocodeAddressColumn_Sheet1">Sheet1!$F$1</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$J$267</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$J$270</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="297">
   <si>
     <t>Start Date</t>
   </si>
@@ -969,6 +969,9 @@
   </si>
   <si>
     <t>Working Team 8 Session 1 (Douglas/Coos County focus)</t>
+  </si>
+  <si>
+    <t>Educator Advancement Council</t>
   </si>
 </sst>
 </file>
@@ -1101,7 +1104,7 @@
         <v>12</v>
       </c>
       <c r="F2" t="str">
-        <f t="shared" ref="F2:F267" si="1">D2&amp;" "&amp;E2</f>
+        <f t="shared" ref="F2:F270" si="1">D2&amp;" "&amp;E2</f>
         <v>Woodburn Oregon</v>
       </c>
       <c r="G2" s="2">
@@ -9020,36 +9023,96 @@
       <c r="J267" s="2"/>
     </row>
     <row r="268">
-      <c r="A268" s="1"/>
-      <c r="B268" s="1"/>
-      <c r="C268" s="2"/>
-      <c r="D268" s="2"/>
-      <c r="E268" s="2"/>
-      <c r="G268" s="2"/>
-      <c r="H268" s="2"/>
-      <c r="I268" s="2"/>
+      <c r="A268" s="1">
+        <v>43670.0</v>
+      </c>
+      <c r="B268" s="1">
+        <v>43670.0</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E268" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F268" t="str">
+        <f t="shared" si="1"/>
+        <v>Salem OR</v>
+      </c>
+      <c r="G268" s="2">
+        <v>44.9428975</v>
+      </c>
+      <c r="H268" s="2">
+        <v>-123.0350963</v>
+      </c>
+      <c r="I268" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="J268" s="2"/>
     </row>
     <row r="269">
-      <c r="A269" s="1"/>
-      <c r="B269" s="1"/>
-      <c r="C269" s="2"/>
-      <c r="D269" s="2"/>
-      <c r="E269" s="2"/>
-      <c r="G269" s="2"/>
-      <c r="H269" s="2"/>
-      <c r="I269" s="2"/>
+      <c r="A269" s="1">
+        <v>43671.0</v>
+      </c>
+      <c r="B269" s="1">
+        <v>43672.0</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E269" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F269" t="str">
+        <f t="shared" si="1"/>
+        <v>Eugene OR</v>
+      </c>
+      <c r="G269" s="2">
+        <v>44.0520691</v>
+      </c>
+      <c r="H269" s="2">
+        <v>-123.0867536</v>
+      </c>
+      <c r="I269" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="J269" s="2"/>
     </row>
     <row r="270">
-      <c r="A270" s="1"/>
-      <c r="B270" s="1"/>
-      <c r="C270" s="2"/>
-      <c r="D270" s="2"/>
-      <c r="E270" s="2"/>
-      <c r="G270" s="2"/>
-      <c r="H270" s="2"/>
-      <c r="I270" s="2"/>
+      <c r="A270" s="1">
+        <v>43677.0</v>
+      </c>
+      <c r="B270" s="1">
+        <v>43677.0</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E270" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F270" t="str">
+        <f t="shared" si="1"/>
+        <v>Eugene OR</v>
+      </c>
+      <c r="G270" s="2">
+        <v>44.0520691</v>
+      </c>
+      <c r="H270" s="2">
+        <v>-123.0867536</v>
+      </c>
+      <c r="I270" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="J270" s="2"/>
     </row>
     <row r="271">
@@ -18524,7 +18587,7 @@
       <c r="J1131" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$J$267"/>
+  <autoFilter ref="$A$1:$J$270"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -7,7 +7,7 @@
   </sheets>
   <definedNames>
     <definedName name="GeocodeAddressColumn_Sheet1">Sheet1!$F$1</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$J$270</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$J$273</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="299">
   <si>
     <t>Start Date</t>
   </si>
@@ -972,6 +972,13 @@
   </si>
   <si>
     <t>Educator Advancement Council</t>
+  </si>
+  <si>
+    <t>Anne/Aden/Denise/Donna
+Kasi/Kathleen/Keavy/Roque</t>
+  </si>
+  <si>
+    <t>Interdepartmental Strategy Meeting</t>
   </si>
 </sst>
 </file>
@@ -1104,7 +1111,7 @@
         <v>12</v>
       </c>
       <c r="F2" t="str">
-        <f t="shared" ref="F2:F270" si="1">D2&amp;" "&amp;E2</f>
+        <f t="shared" ref="F2:F273" si="1">D2&amp;" "&amp;E2</f>
         <v>Woodburn Oregon</v>
       </c>
       <c r="G2" s="2">
@@ -9086,23 +9093,23 @@
     </row>
     <row r="270">
       <c r="A270" s="1">
-        <v>43677.0</v>
+        <v>43676.0</v>
       </c>
       <c r="B270" s="1">
-        <v>43677.0</v>
+        <v>43676.0</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>51</v>
+        <v>297</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E270" s="2" t="s">
         <v>284</v>
       </c>
       <c r="F270" t="str">
         <f t="shared" si="1"/>
-        <v>Eugene OR</v>
+        <v>Roseburg OR</v>
       </c>
       <c r="G270" s="2">
         <v>44.0520691</v>
@@ -9111,41 +9118,101 @@
         <v>-123.0867536</v>
       </c>
       <c r="I270" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="J270" s="2"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1">
+        <v>43677.0</v>
+      </c>
+      <c r="B271" s="1">
+        <v>43677.0</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E271" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F271" t="str">
+        <f t="shared" si="1"/>
+        <v>Eugene OR</v>
+      </c>
+      <c r="G271" s="2">
+        <v>44.0520691</v>
+      </c>
+      <c r="H271" s="2">
+        <v>-123.0867536</v>
+      </c>
+      <c r="I271" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J270" s="2"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1"/>
-      <c r="B271" s="1"/>
-      <c r="C271" s="2"/>
-      <c r="D271" s="2"/>
-      <c r="E271" s="2"/>
-      <c r="G271" s="2"/>
-      <c r="H271" s="2"/>
-      <c r="I271" s="2"/>
       <c r="J271" s="2"/>
     </row>
     <row r="272">
-      <c r="A272" s="1"/>
-      <c r="B272" s="1"/>
-      <c r="C272" s="2"/>
-      <c r="D272" s="2"/>
-      <c r="E272" s="2"/>
-      <c r="G272" s="2"/>
-      <c r="H272" s="2"/>
-      <c r="I272" s="2"/>
+      <c r="A272" s="1">
+        <v>43692.0</v>
+      </c>
+      <c r="B272" s="1">
+        <v>43692.0</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E272" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F272" t="str">
+        <f t="shared" si="1"/>
+        <v>Wilsonville OR</v>
+      </c>
+      <c r="G272" s="2">
+        <v>45.3029903</v>
+      </c>
+      <c r="H272" s="2">
+        <v>-122.7726501</v>
+      </c>
+      <c r="I272" s="2" t="s">
+        <v>288</v>
+      </c>
       <c r="J272" s="2"/>
     </row>
     <row r="273">
-      <c r="A273" s="1"/>
-      <c r="B273" s="1"/>
-      <c r="C273" s="2"/>
-      <c r="D273" s="2"/>
-      <c r="E273" s="2"/>
-      <c r="G273" s="2"/>
-      <c r="H273" s="2"/>
-      <c r="I273" s="2"/>
+      <c r="A273" s="1">
+        <v>43698.0</v>
+      </c>
+      <c r="B273" s="1">
+        <v>43698.0</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E273" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F273" t="str">
+        <f t="shared" si="1"/>
+        <v>Salem OR</v>
+      </c>
+      <c r="G273" s="2">
+        <v>44.9428975</v>
+      </c>
+      <c r="H273" s="2">
+        <v>-123.0350963</v>
+      </c>
+      <c r="I273" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="J273" s="2"/>
     </row>
     <row r="274">
@@ -18587,7 +18654,7 @@
       <c r="J1131" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$J$270"/>
+  <autoFilter ref="$A$1:$J$273"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -7,7 +7,7 @@
   </sheets>
   <definedNames>
     <definedName name="GeocodeAddressColumn_Sheet1">Sheet1!$F$1</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$J$273</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$J$274</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="299">
   <si>
     <t>Start Date</t>
   </si>
@@ -1111,7 +1111,7 @@
         <v>12</v>
       </c>
       <c r="F2" t="str">
-        <f t="shared" ref="F2:F273" si="1">D2&amp;" "&amp;E2</f>
+        <f t="shared" ref="F2:F274" si="1">D2&amp;" "&amp;E2</f>
         <v>Woodburn Oregon</v>
       </c>
       <c r="G2" s="2">
@@ -9216,14 +9216,34 @@
       <c r="J273" s="2"/>
     </row>
     <row r="274">
-      <c r="A274" s="1"/>
-      <c r="B274" s="1"/>
-      <c r="C274" s="2"/>
-      <c r="D274" s="2"/>
-      <c r="E274" s="2"/>
-      <c r="G274" s="2"/>
-      <c r="H274" s="2"/>
-      <c r="I274" s="2"/>
+      <c r="A274" s="1">
+        <v>43699.0</v>
+      </c>
+      <c r="B274" s="1">
+        <v>43700.0</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E274" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F274" t="str">
+        <f t="shared" si="1"/>
+        <v>Eugene OR</v>
+      </c>
+      <c r="G274" s="2">
+        <v>44.0520691</v>
+      </c>
+      <c r="H274" s="2">
+        <v>-123.0867536</v>
+      </c>
+      <c r="I274" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="J274" s="2"/>
     </row>
     <row r="275">
@@ -18654,7 +18674,7 @@
       <c r="J1131" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$J$273"/>
+  <autoFilter ref="$A$1:$J$274"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -7,7 +7,7 @@
   </sheets>
   <definedNames>
     <definedName name="GeocodeAddressColumn_Sheet1">Sheet1!$F$1</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$J$274</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$J$281</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="313">
   <si>
     <t>Start Date</t>
   </si>
@@ -979,6 +979,48 @@
   </si>
   <si>
     <t>Interdepartmental Strategy Meeting</t>
+  </si>
+  <si>
+    <t>Santa Fe</t>
+  </si>
+  <si>
+    <t>National Association For Rural Mental Health Conference</t>
+  </si>
+  <si>
+    <t>Federal Reserve Bank Head Office Board Meeting</t>
+  </si>
+  <si>
+    <t>Indianapolis</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>HOLD National College Access Network Conference</t>
+  </si>
+  <si>
+    <t>Anne/Nate/Carrie</t>
+  </si>
+  <si>
+    <t>Chalkboard Board meeting</t>
+  </si>
+  <si>
+    <t>Some Program Staff</t>
+  </si>
+  <si>
+    <t>SC + VRC Committee Budget Meetings + Board-level Responsive Grants</t>
+  </si>
+  <si>
+    <t>Denise C./Ashley/Bonnie</t>
+  </si>
+  <si>
+    <t>Minneapolis, MN</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>National Scholarship Providers Association Conference</t>
   </si>
 </sst>
 </file>
@@ -1111,7 +1153,7 @@
         <v>12</v>
       </c>
       <c r="F2" t="str">
-        <f t="shared" ref="F2:F274" si="1">D2&amp;" "&amp;E2</f>
+        <f t="shared" ref="F2:F281" si="1">D2&amp;" "&amp;E2</f>
         <v>Woodburn Oregon</v>
       </c>
       <c r="G2" s="2">
@@ -9247,80 +9289,220 @@
       <c r="J274" s="2"/>
     </row>
     <row r="275">
-      <c r="A275" s="1"/>
-      <c r="B275" s="1"/>
-      <c r="C275" s="2"/>
-      <c r="D275" s="2"/>
-      <c r="E275" s="2"/>
-      <c r="G275" s="2"/>
-      <c r="H275" s="2"/>
-      <c r="I275" s="2"/>
+      <c r="A275" s="1">
+        <v>43703.0</v>
+      </c>
+      <c r="B275" s="1">
+        <v>43706.0</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E275" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F275" t="str">
+        <f t="shared" si="1"/>
+        <v>Santa Fe NM</v>
+      </c>
+      <c r="G275" s="2">
+        <v>35.6869752</v>
+      </c>
+      <c r="H275" s="2">
+        <v>-105.937799</v>
+      </c>
+      <c r="I275" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="J275" s="2"/>
     </row>
     <row r="276">
-      <c r="A276" s="1"/>
-      <c r="B276" s="1"/>
-      <c r="C276" s="2"/>
-      <c r="D276" s="2"/>
-      <c r="E276" s="2"/>
-      <c r="G276" s="2"/>
-      <c r="H276" s="2"/>
-      <c r="I276" s="2"/>
+      <c r="A276" s="1">
+        <v>43712.0</v>
+      </c>
+      <c r="B276" s="1">
+        <v>43713.0</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E276" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F276" t="str">
+        <f t="shared" si="1"/>
+        <v>Portland OR</v>
+      </c>
+      <c r="G276" s="2">
+        <v>45.5154586</v>
+      </c>
+      <c r="H276" s="2">
+        <v>-122.6793461</v>
+      </c>
+      <c r="I276" s="2" t="s">
+        <v>301</v>
+      </c>
       <c r="J276" s="2"/>
     </row>
     <row r="277">
-      <c r="A277" s="1"/>
-      <c r="B277" s="1"/>
-      <c r="C277" s="2"/>
-      <c r="D277" s="2"/>
-      <c r="E277" s="2"/>
-      <c r="G277" s="2"/>
-      <c r="H277" s="2"/>
-      <c r="I277" s="2"/>
+      <c r="A277" s="1">
+        <v>43724.0</v>
+      </c>
+      <c r="B277" s="1">
+        <v>43726.0</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E277" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F277" t="str">
+        <f t="shared" si="1"/>
+        <v>Indianapolis IN</v>
+      </c>
+      <c r="G277" s="2">
+        <v>39.768403</v>
+      </c>
+      <c r="H277" s="2">
+        <v>-86.158068</v>
+      </c>
+      <c r="I277" s="2" t="s">
+        <v>304</v>
+      </c>
       <c r="J277" s="2"/>
     </row>
     <row r="278">
-      <c r="A278" s="1"/>
-      <c r="B278" s="1"/>
-      <c r="C278" s="2"/>
-      <c r="D278" s="2"/>
-      <c r="E278" s="2"/>
-      <c r="G278" s="2"/>
-      <c r="H278" s="2"/>
-      <c r="I278" s="2"/>
+      <c r="A278" s="1">
+        <v>43726.0</v>
+      </c>
+      <c r="B278" s="1">
+        <v>43726.0</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E278" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F278" t="str">
+        <f t="shared" si="1"/>
+        <v>Portland IN</v>
+      </c>
+      <c r="G278" s="2">
+        <v>40.4344895</v>
+      </c>
+      <c r="H278" s="2">
+        <v>-84.9777455</v>
+      </c>
+      <c r="I278" s="2" t="s">
+        <v>306</v>
+      </c>
       <c r="J278" s="2"/>
     </row>
     <row r="279">
-      <c r="A279" s="1"/>
-      <c r="B279" s="1"/>
-      <c r="C279" s="2"/>
-      <c r="D279" s="2"/>
-      <c r="E279" s="2"/>
-      <c r="G279" s="2"/>
-      <c r="H279" s="2"/>
-      <c r="I279" s="2"/>
+      <c r="A279" s="1">
+        <v>43728.0</v>
+      </c>
+      <c r="B279" s="1">
+        <v>43728.0</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E279" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F279" t="str">
+        <f t="shared" si="1"/>
+        <v>Eugene OR</v>
+      </c>
+      <c r="G279" s="2">
+        <v>44.0520691</v>
+      </c>
+      <c r="H279" s="2">
+        <v>-123.0867536</v>
+      </c>
+      <c r="I279" s="2" t="s">
+        <v>308</v>
+      </c>
       <c r="J279" s="2"/>
     </row>
     <row r="280">
-      <c r="A280" s="1"/>
-      <c r="B280" s="1"/>
-      <c r="C280" s="2"/>
-      <c r="D280" s="2"/>
-      <c r="E280" s="2"/>
-      <c r="G280" s="2"/>
-      <c r="H280" s="2"/>
-      <c r="I280" s="2"/>
+      <c r="A280" s="1">
+        <v>43733.0</v>
+      </c>
+      <c r="B280" s="1">
+        <v>43733.0</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E280" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F280" t="str">
+        <f t="shared" si="1"/>
+        <v>Eugene OR</v>
+      </c>
+      <c r="G280" s="2">
+        <v>44.0520691</v>
+      </c>
+      <c r="H280" s="2">
+        <v>-123.0867536</v>
+      </c>
+      <c r="I280" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="J280" s="2"/>
     </row>
     <row r="281">
-      <c r="A281" s="1"/>
-      <c r="B281" s="1"/>
-      <c r="C281" s="2"/>
-      <c r="D281" s="2"/>
-      <c r="E281" s="2"/>
-      <c r="G281" s="2"/>
-      <c r="H281" s="2"/>
-      <c r="I281" s="2"/>
+      <c r="A281" s="1">
+        <v>43739.0</v>
+      </c>
+      <c r="B281" s="1">
+        <v>43741.0</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E281" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F281" t="str">
+        <f t="shared" si="1"/>
+        <v>Minneapolis, MN MN</v>
+      </c>
+      <c r="G281" s="2">
+        <v>44.977753</v>
+      </c>
+      <c r="H281" s="2">
+        <v>-93.2650108</v>
+      </c>
+      <c r="I281" s="2" t="s">
+        <v>312</v>
+      </c>
       <c r="J281" s="2"/>
     </row>
     <row r="282">
@@ -18674,7 +18856,7 @@
       <c r="J1131" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$J$274"/>
+  <autoFilter ref="$A$1:$J$281"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -7,7 +7,7 @@
   </sheets>
   <definedNames>
     <definedName name="GeocodeAddressColumn_Sheet1">Sheet1!$F$1</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$J$281</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$J$285</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="315">
   <si>
     <t>Start Date</t>
   </si>
@@ -1014,13 +1014,19 @@
     <t>Denise C./Ashley/Bonnie</t>
   </si>
   <si>
-    <t>Minneapolis, MN</t>
+    <t>Minneapolis</t>
   </si>
   <si>
     <t>MN</t>
   </si>
   <si>
     <t>National Scholarship Providers Association Conference</t>
+  </si>
+  <si>
+    <t>Strategic Economic Development Corporation (SEDCOR) Panel</t>
+  </si>
+  <si>
+    <t>PreBoard Meeting</t>
   </si>
 </sst>
 </file>
@@ -1153,7 +1159,7 @@
         <v>12</v>
       </c>
       <c r="F2" t="str">
-        <f t="shared" ref="F2:F281" si="1">D2&amp;" "&amp;E2</f>
+        <f t="shared" ref="F2:F285" si="1">D2&amp;" "&amp;E2</f>
         <v>Woodburn Oregon</v>
       </c>
       <c r="G2" s="2">
@@ -9492,7 +9498,7 @@
       </c>
       <c r="F281" t="str">
         <f t="shared" si="1"/>
-        <v>Minneapolis, MN MN</v>
+        <v>Minneapolis MN</v>
       </c>
       <c r="G281" s="2">
         <v>44.977753</v>
@@ -9506,47 +9512,127 @@
       <c r="J281" s="2"/>
     </row>
     <row r="282">
-      <c r="A282" s="1"/>
-      <c r="B282" s="1"/>
-      <c r="C282" s="2"/>
-      <c r="D282" s="2"/>
-      <c r="E282" s="2"/>
-      <c r="G282" s="2"/>
-      <c r="H282" s="2"/>
-      <c r="I282" s="2"/>
+      <c r="A282" s="1">
+        <v>43740.0</v>
+      </c>
+      <c r="B282" s="1">
+        <v>43740.0</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D282" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E282" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F282" t="str">
+        <f t="shared" si="1"/>
+        <v>Portland OR</v>
+      </c>
+      <c r="G282" s="2">
+        <v>45.5154586</v>
+      </c>
+      <c r="H282" s="2">
+        <v>-122.6793461</v>
+      </c>
+      <c r="I282" s="2" t="s">
+        <v>301</v>
+      </c>
       <c r="J282" s="2"/>
     </row>
     <row r="283">
-      <c r="A283" s="1"/>
-      <c r="B283" s="1"/>
-      <c r="C283" s="2"/>
-      <c r="D283" s="2"/>
-      <c r="E283" s="2"/>
-      <c r="G283" s="2"/>
-      <c r="H283" s="2"/>
-      <c r="I283" s="2"/>
+      <c r="A283" s="1">
+        <v>43747.0</v>
+      </c>
+      <c r="B283" s="1">
+        <v>43747.0</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D283" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E283" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F283" t="str">
+        <f t="shared" si="1"/>
+        <v>Salem OR</v>
+      </c>
+      <c r="G283" s="2">
+        <v>44.9428975</v>
+      </c>
+      <c r="H283" s="2">
+        <v>-123.0350963</v>
+      </c>
+      <c r="I283" s="2" t="s">
+        <v>313</v>
+      </c>
       <c r="J283" s="2"/>
     </row>
     <row r="284">
-      <c r="A284" s="1"/>
-      <c r="B284" s="1"/>
-      <c r="C284" s="2"/>
-      <c r="D284" s="2"/>
-      <c r="E284" s="2"/>
-      <c r="G284" s="2"/>
-      <c r="H284" s="2"/>
-      <c r="I284" s="2"/>
+      <c r="A284" s="1">
+        <v>43760.0</v>
+      </c>
+      <c r="B284" s="1">
+        <v>43760.0</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E284" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F284" t="str">
+        <f t="shared" si="1"/>
+        <v>Roseburg OR</v>
+      </c>
+      <c r="G284" s="2">
+        <v>44.0520691</v>
+      </c>
+      <c r="H284" s="2">
+        <v>-123.0867536</v>
+      </c>
+      <c r="I284" s="2" t="s">
+        <v>314</v>
+      </c>
       <c r="J284" s="2"/>
     </row>
     <row r="285">
-      <c r="A285" s="1"/>
-      <c r="B285" s="1"/>
-      <c r="C285" s="2"/>
-      <c r="D285" s="2"/>
-      <c r="E285" s="2"/>
-      <c r="G285" s="2"/>
-      <c r="H285" s="2"/>
-      <c r="I285" s="2"/>
+      <c r="A285" s="1">
+        <v>43762.0</v>
+      </c>
+      <c r="B285" s="1">
+        <v>43762.0</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E285" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F285" t="str">
+        <f t="shared" si="1"/>
+        <v>Eugene OR</v>
+      </c>
+      <c r="G285" s="2">
+        <v>44.0520691</v>
+      </c>
+      <c r="H285" s="2">
+        <v>-123.0867536</v>
+      </c>
+      <c r="I285" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="J285" s="2"/>
     </row>
     <row r="286">
@@ -18811,52 +18897,8 @@
       <c r="I1127" s="2"/>
       <c r="J1127" s="2"/>
     </row>
-    <row r="1128">
-      <c r="A1128" s="1"/>
-      <c r="B1128" s="1"/>
-      <c r="C1128" s="2"/>
-      <c r="D1128" s="2"/>
-      <c r="E1128" s="2"/>
-      <c r="G1128" s="2"/>
-      <c r="H1128" s="2"/>
-      <c r="I1128" s="2"/>
-      <c r="J1128" s="2"/>
-    </row>
-    <row r="1129">
-      <c r="A1129" s="1"/>
-      <c r="B1129" s="1"/>
-      <c r="C1129" s="2"/>
-      <c r="D1129" s="2"/>
-      <c r="E1129" s="2"/>
-      <c r="G1129" s="2"/>
-      <c r="H1129" s="2"/>
-      <c r="I1129" s="2"/>
-      <c r="J1129" s="2"/>
-    </row>
-    <row r="1130">
-      <c r="A1130" s="1"/>
-      <c r="B1130" s="1"/>
-      <c r="C1130" s="2"/>
-      <c r="D1130" s="2"/>
-      <c r="E1130" s="2"/>
-      <c r="G1130" s="2"/>
-      <c r="H1130" s="2"/>
-      <c r="I1130" s="2"/>
-      <c r="J1130" s="2"/>
-    </row>
-    <row r="1131">
-      <c r="A1131" s="1"/>
-      <c r="B1131" s="1"/>
-      <c r="C1131" s="2"/>
-      <c r="D1131" s="2"/>
-      <c r="E1131" s="2"/>
-      <c r="G1131" s="2"/>
-      <c r="H1131" s="2"/>
-      <c r="I1131" s="2"/>
-      <c r="J1131" s="2"/>
-    </row>
   </sheetData>
-  <autoFilter ref="$A$1:$J$281"/>
+  <autoFilter ref="$A$1:$J$285"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="GeocodeAddressColumn_Sheet1">Sheet1!$F$1</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$J$285</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$J$289</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="320">
   <si>
     <t>Start Date</t>
   </si>
@@ -1027,6 +1027,21 @@
   </si>
   <si>
     <t>PreBoard Meeting</t>
+  </si>
+  <si>
+    <t>Umpqua Community College Early Childhood Educators' conference</t>
+  </si>
+  <si>
+    <t>Anne/Roque/Kathleen/Roz/Yvette</t>
+  </si>
+  <si>
+    <t>CED Small Business Development Center Fall Event</t>
+  </si>
+  <si>
+    <t>Finalize Board Meeting Materials from Anne's edits/comments</t>
+  </si>
+  <si>
+    <t>Board Book Assembly 10/28-10/31</t>
   </si>
 </sst>
 </file>
@@ -1086,11 +1101,11 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1159,7 +1174,7 @@
         <v>12</v>
       </c>
       <c r="F2" t="str">
-        <f t="shared" ref="F2:F285" si="1">D2&amp;" "&amp;E2</f>
+        <f t="shared" ref="F2:F289" si="1">D2&amp;" "&amp;E2</f>
         <v>Woodburn Oregon</v>
       </c>
       <c r="G2" s="2">
@@ -9636,47 +9651,127 @@
       <c r="J285" s="2"/>
     </row>
     <row r="286">
-      <c r="A286" s="1"/>
-      <c r="B286" s="1"/>
-      <c r="C286" s="2"/>
-      <c r="D286" s="2"/>
-      <c r="E286" s="2"/>
-      <c r="G286" s="2"/>
-      <c r="H286" s="2"/>
-      <c r="I286" s="2"/>
+      <c r="A286" s="1">
+        <v>43763.0</v>
+      </c>
+      <c r="B286" s="1">
+        <v>43764.0</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E286" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F286" t="str">
+        <f t="shared" si="1"/>
+        <v>Roseburg OR</v>
+      </c>
+      <c r="G286" s="2">
+        <v>44.0520691</v>
+      </c>
+      <c r="H286" s="2">
+        <v>-123.0867536</v>
+      </c>
+      <c r="I286" s="2" t="s">
+        <v>315</v>
+      </c>
       <c r="J286" s="2"/>
     </row>
     <row r="287">
-      <c r="A287" s="1"/>
-      <c r="B287" s="1"/>
-      <c r="C287" s="2"/>
-      <c r="D287" s="2"/>
-      <c r="E287" s="2"/>
-      <c r="G287" s="2"/>
-      <c r="H287" s="2"/>
-      <c r="I287" s="2"/>
+      <c r="A287" s="1">
+        <v>43766.0</v>
+      </c>
+      <c r="B287" s="1">
+        <v>43768.0</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E287" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F287" t="str">
+        <f t="shared" si="1"/>
+        <v>Sisters OR</v>
+      </c>
+      <c r="G287" s="2">
+        <v>44.2909491</v>
+      </c>
+      <c r="H287" s="2">
+        <v>-121.5492119</v>
+      </c>
+      <c r="I287" s="2" t="s">
+        <v>317</v>
+      </c>
       <c r="J287" s="2"/>
     </row>
     <row r="288">
-      <c r="A288" s="1"/>
-      <c r="B288" s="1"/>
-      <c r="C288" s="2"/>
-      <c r="D288" s="2"/>
-      <c r="E288" s="2"/>
-      <c r="G288" s="2"/>
-      <c r="H288" s="2"/>
-      <c r="I288" s="2"/>
+      <c r="A288" s="1">
+        <v>43766.0</v>
+      </c>
+      <c r="B288" s="1">
+        <v>43766.0</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E288" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F288" t="str">
+        <f t="shared" si="1"/>
+        <v>Roseburg OR</v>
+      </c>
+      <c r="G288" s="2">
+        <v>44.0520691</v>
+      </c>
+      <c r="H288" s="2">
+        <v>-123.0867536</v>
+      </c>
+      <c r="I288" s="2" t="s">
+        <v>318</v>
+      </c>
       <c r="J288" s="2"/>
     </row>
     <row r="289">
-      <c r="A289" s="1"/>
-      <c r="B289" s="1"/>
-      <c r="C289" s="2"/>
-      <c r="D289" s="2"/>
-      <c r="E289" s="2"/>
-      <c r="G289" s="2"/>
-      <c r="H289" s="2"/>
-      <c r="I289" s="2"/>
+      <c r="A289" s="1">
+        <v>43766.0</v>
+      </c>
+      <c r="B289" s="1">
+        <v>43769.0</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E289" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F289" t="str">
+        <f t="shared" si="1"/>
+        <v>Roseburg OR</v>
+      </c>
+      <c r="G289" s="2">
+        <v>44.0520691</v>
+      </c>
+      <c r="H289" s="2">
+        <v>-123.0867536</v>
+      </c>
+      <c r="I289" s="2" t="s">
+        <v>319</v>
+      </c>
       <c r="J289" s="2"/>
     </row>
     <row r="290">
@@ -18886,19 +18981,8 @@
       <c r="I1126" s="2"/>
       <c r="J1126" s="2"/>
     </row>
-    <row r="1127">
-      <c r="A1127" s="1"/>
-      <c r="B1127" s="1"/>
-      <c r="C1127" s="2"/>
-      <c r="D1127" s="2"/>
-      <c r="E1127" s="2"/>
-      <c r="G1127" s="2"/>
-      <c r="H1127" s="2"/>
-      <c r="I1127" s="2"/>
-      <c r="J1127" s="2"/>
-    </row>
   </sheetData>
-  <autoFilter ref="$A$1:$J$285"/>
+  <autoFilter ref="$A$1:$J$289"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -7,7 +7,7 @@
   </sheets>
   <definedNames>
     <definedName name="GeocodeAddressColumn_Sheet1">Sheet1!$F$1</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$J$289</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$J$297</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="328">
   <si>
     <t>Start Date</t>
   </si>
@@ -1042,6 +1042,31 @@
   </si>
   <si>
     <t>Board Book Assembly 10/28-10/31</t>
+  </si>
+  <si>
+    <t>Roque/Max/Yvette</t>
+  </si>
+  <si>
+    <t>Reedsport</t>
+  </si>
+  <si>
+    <t>Douglas County Working Team – Session 3 (providing guidance on FICB strategies and programming)</t>
+  </si>
+  <si>
+    <t>TFFF Board/Committee Meetings (11/7 - 11/8) @ Eugene Office</t>
+  </si>
+  <si>
+    <t>Anne/Roque/Max/Kathleen/Roz</t>
+  </si>
+  <si>
+    <t>Jefferson eFunders Forum (JeFF) Retreat with FICB Community Building Approach</t>
+  </si>
+  <si>
+    <t>Anne/Aden/Denise/Donna
+ Kasi/Kathleen/Keavy/Roque</t>
+  </si>
+  <si>
+    <t>HOLD Oregon Business Leadership Summit (12/2 or 12/9)</t>
   </si>
 </sst>
 </file>
@@ -1174,7 +1199,7 @@
         <v>12</v>
       </c>
       <c r="F2" t="str">
-        <f t="shared" ref="F2:F289" si="1">D2&amp;" "&amp;E2</f>
+        <f t="shared" ref="F2:F297" si="1">D2&amp;" "&amp;E2</f>
         <v>Woodburn Oregon</v>
       </c>
       <c r="G2" s="2">
@@ -9775,91 +9800,251 @@
       <c r="J289" s="2"/>
     </row>
     <row r="290">
-      <c r="A290" s="1"/>
-      <c r="B290" s="1"/>
-      <c r="C290" s="2"/>
-      <c r="D290" s="2"/>
-      <c r="E290" s="2"/>
-      <c r="G290" s="2"/>
-      <c r="H290" s="2"/>
-      <c r="I290" s="2"/>
+      <c r="A290" s="1">
+        <v>43770.0</v>
+      </c>
+      <c r="B290" s="1">
+        <v>43771.0</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="E290" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F290" t="str">
+        <f t="shared" si="1"/>
+        <v>Reedsport OR</v>
+      </c>
+      <c r="G290" s="2">
+        <v>43.7023389</v>
+      </c>
+      <c r="H290" s="2">
+        <v>-124.0967779</v>
+      </c>
+      <c r="I290" s="2" t="s">
+        <v>322</v>
+      </c>
       <c r="J290" s="2"/>
     </row>
     <row r="291">
-      <c r="A291" s="1"/>
-      <c r="B291" s="1"/>
-      <c r="C291" s="2"/>
-      <c r="D291" s="2"/>
-      <c r="E291" s="2"/>
-      <c r="G291" s="2"/>
-      <c r="H291" s="2"/>
-      <c r="I291" s="2"/>
+      <c r="A291" s="1">
+        <v>43775.0</v>
+      </c>
+      <c r="B291" s="1">
+        <v>43775.0</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E291" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F291" t="str">
+        <f t="shared" si="1"/>
+        <v>Portland OR</v>
+      </c>
+      <c r="G291" s="2">
+        <v>45.5154586</v>
+      </c>
+      <c r="H291" s="2">
+        <v>-122.6793461</v>
+      </c>
+      <c r="I291" s="2" t="s">
+        <v>301</v>
+      </c>
       <c r="J291" s="2"/>
     </row>
     <row r="292">
-      <c r="A292" s="1"/>
-      <c r="B292" s="1"/>
-      <c r="C292" s="2"/>
-      <c r="D292" s="2"/>
-      <c r="E292" s="2"/>
-      <c r="G292" s="2"/>
-      <c r="H292" s="2"/>
-      <c r="I292" s="2"/>
+      <c r="A292" s="1">
+        <v>43776.0</v>
+      </c>
+      <c r="B292" s="1">
+        <v>43777.0</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E292" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F292" t="str">
+        <f t="shared" si="1"/>
+        <v>Eugene OR</v>
+      </c>
+      <c r="G292" s="2">
+        <v>44.0520691</v>
+      </c>
+      <c r="H292" s="2">
+        <v>-123.0867536</v>
+      </c>
+      <c r="I292" s="2" t="s">
+        <v>323</v>
+      </c>
       <c r="J292" s="2"/>
     </row>
     <row r="293">
-      <c r="A293" s="1"/>
-      <c r="B293" s="1"/>
-      <c r="C293" s="2"/>
-      <c r="D293" s="2"/>
-      <c r="E293" s="2"/>
-      <c r="G293" s="2"/>
-      <c r="H293" s="2"/>
-      <c r="I293" s="2"/>
+      <c r="A293" s="1">
+        <v>43783.0</v>
+      </c>
+      <c r="B293" s="1">
+        <v>43783.0</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E293" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F293" t="str">
+        <f t="shared" si="1"/>
+        <v>Medford OR</v>
+      </c>
+      <c r="G293" s="2">
+        <v>42.3265152</v>
+      </c>
+      <c r="H293" s="2">
+        <v>-122.8755949</v>
+      </c>
+      <c r="I293" s="2" t="s">
+        <v>325</v>
+      </c>
       <c r="J293" s="2"/>
     </row>
     <row r="294">
-      <c r="A294" s="1"/>
-      <c r="B294" s="1"/>
-      <c r="C294" s="2"/>
-      <c r="D294" s="2"/>
-      <c r="E294" s="2"/>
-      <c r="G294" s="2"/>
-      <c r="H294" s="2"/>
-      <c r="I294" s="2"/>
+      <c r="A294" s="1">
+        <v>43788.0</v>
+      </c>
+      <c r="B294" s="1">
+        <v>43788.0</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D294" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E294" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F294" t="str">
+        <f t="shared" si="1"/>
+        <v>Roseburg OR</v>
+      </c>
+      <c r="G294" s="2">
+        <v>43.216505</v>
+      </c>
+      <c r="H294" s="2">
+        <v>-123.3417381</v>
+      </c>
+      <c r="I294" s="2" t="s">
+        <v>298</v>
+      </c>
       <c r="J294" s="2"/>
     </row>
     <row r="295">
-      <c r="A295" s="1"/>
-      <c r="B295" s="1"/>
-      <c r="C295" s="2"/>
-      <c r="D295" s="2"/>
-      <c r="E295" s="2"/>
-      <c r="G295" s="2"/>
-      <c r="H295" s="2"/>
-      <c r="I295" s="2"/>
+      <c r="A295" s="1">
+        <v>43789.0</v>
+      </c>
+      <c r="B295" s="1">
+        <v>43789.0</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E295" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F295" t="str">
+        <f t="shared" si="1"/>
+        <v>Portland OR</v>
+      </c>
+      <c r="G295" s="2">
+        <v>45.5154586</v>
+      </c>
+      <c r="H295" s="2">
+        <v>-122.6793461</v>
+      </c>
+      <c r="I295" s="2" t="s">
+        <v>306</v>
+      </c>
       <c r="J295" s="2"/>
     </row>
     <row r="296">
-      <c r="A296" s="1"/>
-      <c r="B296" s="1"/>
-      <c r="C296" s="2"/>
-      <c r="D296" s="2"/>
-      <c r="E296" s="2"/>
-      <c r="G296" s="2"/>
-      <c r="H296" s="2"/>
-      <c r="I296" s="2"/>
+      <c r="A296" s="1">
+        <v>43796.0</v>
+      </c>
+      <c r="B296" s="1">
+        <v>43796.0</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D296" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E296" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F296" t="str">
+        <f t="shared" si="1"/>
+        <v>Eugene OR</v>
+      </c>
+      <c r="G296" s="2">
+        <v>44.0520691</v>
+      </c>
+      <c r="H296" s="2">
+        <v>-123.0867536</v>
+      </c>
+      <c r="I296" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="J296" s="2"/>
     </row>
     <row r="297">
-      <c r="A297" s="1"/>
-      <c r="B297" s="1"/>
-      <c r="C297" s="2"/>
-      <c r="D297" s="2"/>
-      <c r="E297" s="2"/>
-      <c r="G297" s="2"/>
-      <c r="H297" s="2"/>
-      <c r="I297" s="2"/>
+      <c r="A297" s="1">
+        <v>43801.0</v>
+      </c>
+      <c r="B297" s="1">
+        <v>43801.0</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D297" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E297" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F297" t="str">
+        <f t="shared" si="1"/>
+        <v>Portland OR</v>
+      </c>
+      <c r="G297" s="2">
+        <v>45.5154586</v>
+      </c>
+      <c r="H297" s="2">
+        <v>-122.6793461</v>
+      </c>
+      <c r="I297" s="2" t="s">
+        <v>327</v>
+      </c>
       <c r="J297" s="2"/>
     </row>
     <row r="298">
@@ -18982,7 +19167,7 @@
       <c r="J1126" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$J$289"/>
+  <autoFilter ref="$A$1:$J$297"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -7,9 +7,13 @@
   </sheets>
   <definedNames>
     <definedName name="GeocodeAddressColumn_Sheet1">Sheet1!$F$1</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$J$297</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$J$306</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_D9D3BC21_ECAE_46AE_8410_71376037E4F1_.wvu.FilterData">Sheet1!$A$1:$J$306</definedName>
   </definedNames>
   <calcPr/>
+  <customWorkbookViews>
+    <customWorkbookView activeSheetId="0" maximized="1" tabRatio="600" windowHeight="0" windowWidth="0" guid="{D9D3BC21-ECAE-46AE-8410-71376037E4F1}" name="Filter 1"/>
+  </customWorkbookViews>
 </workbook>
 </file>
 
@@ -78,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="338">
   <si>
     <t>Start Date</t>
   </si>
@@ -1067,6 +1071,36 @@
   </si>
   <si>
     <t>HOLD Oregon Business Leadership Summit (12/2 or 12/9)</t>
+  </si>
+  <si>
+    <t>Phoenix</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>Complete College America Convening</t>
+  </si>
+  <si>
+    <t>Eugene Office Meetings</t>
+  </si>
+  <si>
+    <t>Roque/Yvette</t>
+  </si>
+  <si>
+    <t>St. Charles</t>
+  </si>
+  <si>
+    <t>St. Charles Health System Site Visit</t>
+  </si>
+  <si>
+    <t>Oregon Business Leadership Summit</t>
+  </si>
+  <si>
+    <t>Robin HD/Keavy/Nate/Levi</t>
+  </si>
+  <si>
+    <t>Systems of Care breakfast meeting</t>
   </si>
 </sst>
 </file>
@@ -1199,7 +1233,7 @@
         <v>12</v>
       </c>
       <c r="F2" t="str">
-        <f t="shared" ref="F2:F297" si="1">D2&amp;" "&amp;E2</f>
+        <f t="shared" ref="F2:F306" si="1">D2&amp;" "&amp;E2</f>
         <v>Woodburn Oregon</v>
       </c>
       <c r="G2" s="2">
@@ -10048,102 +10082,282 @@
       <c r="J297" s="2"/>
     </row>
     <row r="298">
-      <c r="A298" s="1"/>
-      <c r="B298" s="1"/>
-      <c r="C298" s="2"/>
-      <c r="D298" s="2"/>
-      <c r="E298" s="2"/>
-      <c r="G298" s="2"/>
-      <c r="H298" s="2"/>
-      <c r="I298" s="2"/>
+      <c r="A298" s="1">
+        <v>43802.0</v>
+      </c>
+      <c r="B298" s="1">
+        <v>43805.0</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E298" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="F298" t="str">
+        <f t="shared" si="1"/>
+        <v>Phoenix AZ</v>
+      </c>
+      <c r="G298" s="2">
+        <v>33.4483771</v>
+      </c>
+      <c r="H298" s="2">
+        <v>-112.0740373</v>
+      </c>
+      <c r="I298" s="2" t="s">
+        <v>330</v>
+      </c>
       <c r="J298" s="2"/>
     </row>
     <row r="299">
-      <c r="A299" s="1"/>
-      <c r="B299" s="1"/>
-      <c r="C299" s="2"/>
-      <c r="D299" s="2"/>
-      <c r="E299" s="2"/>
-      <c r="G299" s="2"/>
-      <c r="H299" s="2"/>
-      <c r="I299" s="2"/>
+      <c r="A299" s="1">
+        <v>43804.0</v>
+      </c>
+      <c r="B299" s="1">
+        <v>43804.0</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D299" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E299" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F299" t="str">
+        <f t="shared" si="1"/>
+        <v>Eugene OR</v>
+      </c>
+      <c r="G299" s="2">
+        <v>44.0520691</v>
+      </c>
+      <c r="H299" s="2">
+        <v>-123.0867536</v>
+      </c>
+      <c r="I299" s="2" t="s">
+        <v>331</v>
+      </c>
       <c r="J299" s="2"/>
     </row>
     <row r="300">
-      <c r="A300" s="1"/>
-      <c r="B300" s="1"/>
-      <c r="C300" s="2"/>
-      <c r="D300" s="2"/>
-      <c r="E300" s="2"/>
-      <c r="G300" s="2"/>
-      <c r="H300" s="2"/>
-      <c r="I300" s="2"/>
+      <c r="A300" s="1">
+        <v>43804.0</v>
+      </c>
+      <c r="B300" s="1">
+        <v>43805.0</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E300" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F300" t="str">
+        <f t="shared" si="1"/>
+        <v>St. Charles OR</v>
+      </c>
+      <c r="G300" s="2">
+        <v>44.0678857</v>
+      </c>
+      <c r="H300" s="2">
+        <v>-121.2694555</v>
+      </c>
+      <c r="I300" s="2" t="s">
+        <v>334</v>
+      </c>
       <c r="J300" s="2"/>
     </row>
     <row r="301">
-      <c r="A301" s="1"/>
-      <c r="B301" s="1"/>
-      <c r="C301" s="2"/>
-      <c r="D301" s="2"/>
-      <c r="E301" s="2"/>
-      <c r="G301" s="2"/>
-      <c r="H301" s="2"/>
-      <c r="I301" s="2"/>
+      <c r="A301" s="1">
+        <v>43815.0</v>
+      </c>
+      <c r="B301" s="1">
+        <v>43815.0</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E301" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F301" t="str">
+        <f t="shared" si="1"/>
+        <v>Portland OR</v>
+      </c>
+      <c r="G301" s="2">
+        <v>45.5051064</v>
+      </c>
+      <c r="H301" s="2">
+        <v>-122.6750261</v>
+      </c>
+      <c r="I301" s="2" t="s">
+        <v>335</v>
+      </c>
       <c r="J301" s="2"/>
     </row>
     <row r="302">
-      <c r="A302" s="1"/>
-      <c r="B302" s="1"/>
-      <c r="C302" s="2"/>
-      <c r="D302" s="2"/>
-      <c r="E302" s="2"/>
-      <c r="G302" s="2"/>
-      <c r="H302" s="2"/>
-      <c r="I302" s="2"/>
+      <c r="A302" s="1">
+        <v>43818.0</v>
+      </c>
+      <c r="B302" s="1">
+        <v>43818.0</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D302" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E302" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F302" t="str">
+        <f t="shared" si="1"/>
+        <v>Eugene OR</v>
+      </c>
+      <c r="G302" s="2">
+        <v>44.0520691</v>
+      </c>
+      <c r="H302" s="2">
+        <v>-123.0867536</v>
+      </c>
+      <c r="I302" s="2" t="s">
+        <v>331</v>
+      </c>
       <c r="J302" s="2"/>
     </row>
     <row r="303">
-      <c r="A303" s="1"/>
-      <c r="B303" s="1"/>
-      <c r="C303" s="2"/>
-      <c r="D303" s="2"/>
-      <c r="E303" s="2"/>
-      <c r="G303" s="2"/>
-      <c r="H303" s="2"/>
-      <c r="I303" s="2"/>
+      <c r="A303" s="1">
+        <v>43818.0</v>
+      </c>
+      <c r="B303" s="1">
+        <v>43818.0</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E303" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F303" t="str">
+        <f t="shared" si="1"/>
+        <v>Roseburg OR</v>
+      </c>
+      <c r="G303" s="2">
+        <v>43.216505</v>
+      </c>
+      <c r="H303" s="2">
+        <v>-123.3417381</v>
+      </c>
+      <c r="I303" s="2" t="s">
+        <v>337</v>
+      </c>
       <c r="J303" s="2"/>
     </row>
     <row r="304">
-      <c r="A304" s="1"/>
-      <c r="B304" s="1"/>
-      <c r="C304" s="2"/>
-      <c r="D304" s="2"/>
-      <c r="E304" s="2"/>
-      <c r="G304" s="2"/>
-      <c r="H304" s="2"/>
-      <c r="I304" s="2"/>
+      <c r="A304" s="1">
+        <v>43818.0</v>
+      </c>
+      <c r="B304" s="1">
+        <v>43818.0</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D304" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E304" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F304" t="str">
+        <f t="shared" si="1"/>
+        <v>Wilsonville OR</v>
+      </c>
+      <c r="G304" s="2">
+        <v>45.3029903</v>
+      </c>
+      <c r="H304" s="2">
+        <v>-122.7726501</v>
+      </c>
+      <c r="I304" s="2" t="s">
+        <v>288</v>
+      </c>
       <c r="J304" s="2"/>
     </row>
     <row r="305">
-      <c r="A305" s="1"/>
-      <c r="B305" s="1"/>
-      <c r="C305" s="2"/>
-      <c r="D305" s="2"/>
-      <c r="E305" s="2"/>
-      <c r="G305" s="2"/>
-      <c r="H305" s="2"/>
-      <c r="I305" s="2"/>
+      <c r="A305" s="1">
+        <v>43846.0</v>
+      </c>
+      <c r="B305" s="1">
+        <v>43846.0</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D305" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E305" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F305" t="str">
+        <f t="shared" si="1"/>
+        <v>Roseburg OR</v>
+      </c>
+      <c r="G305" s="2">
+        <v>43.216505</v>
+      </c>
+      <c r="H305" s="2">
+        <v>-123.3417381</v>
+      </c>
+      <c r="I305" s="2" t="s">
+        <v>337</v>
+      </c>
       <c r="J305" s="2"/>
     </row>
     <row r="306">
-      <c r="A306" s="1"/>
-      <c r="B306" s="1"/>
-      <c r="C306" s="2"/>
-      <c r="D306" s="2"/>
-      <c r="E306" s="2"/>
-      <c r="G306" s="2"/>
-      <c r="H306" s="2"/>
-      <c r="I306" s="2"/>
+      <c r="A306" s="1">
+        <v>43846.0</v>
+      </c>
+      <c r="B306" s="1">
+        <v>43846.0</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E306" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F306" t="str">
+        <f t="shared" si="1"/>
+        <v>Wilsonville OR</v>
+      </c>
+      <c r="G306" s="2">
+        <v>45.3029903</v>
+      </c>
+      <c r="H306" s="2">
+        <v>-122.7726501</v>
+      </c>
+      <c r="I306" s="2" t="s">
+        <v>288</v>
+      </c>
       <c r="J306" s="2"/>
     </row>
     <row r="307">
@@ -19167,7 +19381,16 @@
       <c r="J1126" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$J$297"/>
+  <autoFilter ref="$A$1:$J$306">
+    <sortState ref="A1:J306">
+      <sortCondition ref="A1:A306"/>
+    </sortState>
+  </autoFilter>
+  <customSheetViews>
+    <customSheetView guid="{D9D3BC21-ECAE-46AE-8410-71376037E4F1}" filter="1" showAutoFilter="1">
+      <autoFilter ref="$A$1:$J$306"/>
+    </customSheetView>
+  </customSheetViews>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -7,12 +7,12 @@
   </sheets>
   <definedNames>
     <definedName name="GeocodeAddressColumn_Sheet1">Sheet1!$F$1</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$J$306</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_D9D3BC21_ECAE_46AE_8410_71376037E4F1_.wvu.FilterData">Sheet1!$A$1:$J$306</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$J$311</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_4BEF9318_48F8_40A1_ADBB_CE47D12157F0_.wvu.FilterData">Sheet1!$A$1:$J$311</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" tabRatio="600" windowHeight="0" windowWidth="0" guid="{D9D3BC21-ECAE-46AE-8410-71376037E4F1}" name="Filter 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" tabRatio="600" windowHeight="0" windowWidth="0" guid="{4BEF9318-48F8-40A1-ADBB-CE47D12157F0}" name="Filter 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="344">
   <si>
     <t>Start Date</t>
   </si>
@@ -1101,6 +1101,24 @@
   </si>
   <si>
     <t>Systems of Care breakfast meeting</t>
+  </si>
+  <si>
+    <t>Educator Advancement Council (EAC) meeting</t>
+  </si>
+  <si>
+    <t>Nate</t>
+  </si>
+  <si>
+    <t>Out of School Time grantees "spring" convening</t>
+  </si>
+  <si>
+    <t>Seattle</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>Postsecondary State Policy Meeting</t>
   </si>
 </sst>
 </file>
@@ -1233,7 +1251,7 @@
         <v>12</v>
       </c>
       <c r="F2" t="str">
-        <f t="shared" ref="F2:F306" si="1">D2&amp;" "&amp;E2</f>
+        <f t="shared" ref="F2:F311" si="1">D2&amp;" "&amp;E2</f>
         <v>Woodburn Oregon</v>
       </c>
       <c r="G2" s="2">
@@ -10361,58 +10379,158 @@
       <c r="J306" s="2"/>
     </row>
     <row r="307">
-      <c r="A307" s="1"/>
-      <c r="B307" s="1"/>
-      <c r="C307" s="2"/>
-      <c r="D307" s="2"/>
-      <c r="E307" s="2"/>
-      <c r="G307" s="2"/>
-      <c r="H307" s="2"/>
-      <c r="I307" s="2"/>
+      <c r="A307" s="1">
+        <v>43852.0</v>
+      </c>
+      <c r="B307" s="1">
+        <v>43852.0</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D307" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E307" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F307" t="str">
+        <f t="shared" si="1"/>
+        <v>Salem OR</v>
+      </c>
+      <c r="G307" s="2">
+        <v>44.9428975</v>
+      </c>
+      <c r="H307" s="2">
+        <v>-123.0350963</v>
+      </c>
+      <c r="I307" s="2" t="s">
+        <v>338</v>
+      </c>
       <c r="J307" s="2"/>
     </row>
     <row r="308">
-      <c r="A308" s="1"/>
-      <c r="B308" s="1"/>
-      <c r="C308" s="2"/>
-      <c r="D308" s="2"/>
-      <c r="E308" s="2"/>
-      <c r="G308" s="2"/>
-      <c r="H308" s="2"/>
-      <c r="I308" s="2"/>
+      <c r="A308" s="1">
+        <v>43853.0</v>
+      </c>
+      <c r="B308" s="1">
+        <v>43854.0</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D308" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E308" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F308" t="str">
+        <f t="shared" si="1"/>
+        <v>Silverton OR</v>
+      </c>
+      <c r="G308" s="2">
+        <v>45.0051213</v>
+      </c>
+      <c r="H308" s="2">
+        <v>-122.7831455</v>
+      </c>
+      <c r="I308" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="J308" s="2"/>
     </row>
     <row r="309">
-      <c r="A309" s="1"/>
-      <c r="B309" s="1"/>
-      <c r="C309" s="2"/>
-      <c r="D309" s="2"/>
-      <c r="E309" s="2"/>
-      <c r="G309" s="2"/>
-      <c r="H309" s="2"/>
-      <c r="I309" s="2"/>
+      <c r="A309" s="1">
+        <v>43859.0</v>
+      </c>
+      <c r="B309" s="1">
+        <v>43859.0</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D309" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E309" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F309" t="str">
+        <f t="shared" si="1"/>
+        <v>Eugene OR</v>
+      </c>
+      <c r="G309" s="2">
+        <v>44.0520691</v>
+      </c>
+      <c r="H309" s="2">
+        <v>-123.0867536</v>
+      </c>
+      <c r="I309" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="J309" s="2"/>
     </row>
     <row r="310">
-      <c r="A310" s="1"/>
-      <c r="B310" s="1"/>
-      <c r="C310" s="2"/>
-      <c r="D310" s="2"/>
-      <c r="E310" s="2"/>
-      <c r="G310" s="2"/>
-      <c r="H310" s="2"/>
-      <c r="I310" s="2"/>
+      <c r="A310" s="1">
+        <v>43859.0</v>
+      </c>
+      <c r="B310" s="1">
+        <v>43860.0</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E310" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="F310" t="str">
+        <f t="shared" si="1"/>
+        <v>Seattle WA</v>
+      </c>
+      <c r="G310" s="2">
+        <v>47.6062095</v>
+      </c>
+      <c r="H310" s="2">
+        <v>-122.3320708</v>
+      </c>
+      <c r="I310" s="2" t="s">
+        <v>343</v>
+      </c>
       <c r="J310" s="2"/>
     </row>
     <row r="311">
-      <c r="A311" s="1"/>
-      <c r="B311" s="1"/>
-      <c r="C311" s="2"/>
-      <c r="D311" s="2"/>
-      <c r="E311" s="2"/>
-      <c r="G311" s="2"/>
-      <c r="H311" s="2"/>
-      <c r="I311" s="2"/>
+      <c r="A311" s="1">
+        <v>43887.0</v>
+      </c>
+      <c r="B311" s="1">
+        <v>43887.0</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D311" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E311" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F311" t="str">
+        <f t="shared" si="1"/>
+        <v>Salem OR</v>
+      </c>
+      <c r="G311" s="2">
+        <v>44.9428975</v>
+      </c>
+      <c r="H311" s="2">
+        <v>-123.0350963</v>
+      </c>
+      <c r="I311" s="2" t="s">
+        <v>338</v>
+      </c>
       <c r="J311" s="2"/>
     </row>
     <row r="312">
@@ -19381,14 +19499,14 @@
       <c r="J1126" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$J$306">
-    <sortState ref="A1:J306">
-      <sortCondition ref="A1:A306"/>
+  <autoFilter ref="$A$1:$J$311">
+    <sortState ref="A1:J311">
+      <sortCondition ref="A1:A311"/>
     </sortState>
   </autoFilter>
   <customSheetViews>
-    <customSheetView guid="{D9D3BC21-ECAE-46AE-8410-71376037E4F1}" filter="1" showAutoFilter="1">
-      <autoFilter ref="$A$1:$J$306"/>
+    <customSheetView guid="{4BEF9318-48F8-40A1-ADBB-CE47D12157F0}" filter="1" showAutoFilter="1">
+      <autoFilter ref="$A$1:$J$311"/>
     </customSheetView>
   </customSheetViews>
   <drawing r:id="rId2"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -7,12 +7,12 @@
   </sheets>
   <definedNames>
     <definedName name="GeocodeAddressColumn_Sheet1">Sheet1!$F$1</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$J$311</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_4BEF9318_48F8_40A1_ADBB_CE47D12157F0_.wvu.FilterData">Sheet1!$A$1:$J$311</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$J$312</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_A581BE66_DC9E_4569_9F3B_2837E0B9BCA4_.wvu.FilterData">Sheet1!$A$1:$J$312</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" tabRatio="600" windowHeight="0" windowWidth="0" guid="{4BEF9318-48F8-40A1-ADBB-CE47D12157F0}" name="Filter 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" tabRatio="600" windowHeight="0" windowWidth="0" guid="{A581BE66-DC9E-4569-9F3B-2837E0B9BCA4}" name="Filter 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="344">
   <si>
     <t>Start Date</t>
   </si>
@@ -1251,7 +1251,7 @@
         <v>12</v>
       </c>
       <c r="F2" t="str">
-        <f t="shared" ref="F2:F311" si="1">D2&amp;" "&amp;E2</f>
+        <f t="shared" ref="F2:F312" si="1">D2&amp;" "&amp;E2</f>
         <v>Woodburn Oregon</v>
       </c>
       <c r="G2" s="2">
@@ -10534,14 +10534,34 @@
       <c r="J311" s="2"/>
     </row>
     <row r="312">
-      <c r="A312" s="1"/>
-      <c r="B312" s="1"/>
-      <c r="C312" s="2"/>
-      <c r="D312" s="2"/>
-      <c r="E312" s="2"/>
-      <c r="G312" s="2"/>
-      <c r="H312" s="2"/>
-      <c r="I312" s="2"/>
+      <c r="A312" s="1">
+        <v>43887.0</v>
+      </c>
+      <c r="B312" s="1">
+        <v>43887.0</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D312" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E312" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F312" t="str">
+        <f t="shared" si="1"/>
+        <v>Eugene OR</v>
+      </c>
+      <c r="G312" s="2">
+        <v>44.0520691</v>
+      </c>
+      <c r="H312" s="2">
+        <v>-123.0867536</v>
+      </c>
+      <c r="I312" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="J312" s="2"/>
     </row>
     <row r="313">
@@ -19499,14 +19519,14 @@
       <c r="J1126" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$J$311">
-    <sortState ref="A1:J311">
-      <sortCondition ref="A1:A311"/>
+  <autoFilter ref="$A$1:$J$312">
+    <sortState ref="A1:J312">
+      <sortCondition ref="A1:A312"/>
     </sortState>
   </autoFilter>
   <customSheetViews>
-    <customSheetView guid="{4BEF9318-48F8-40A1-ADBB-CE47D12157F0}" filter="1" showAutoFilter="1">
-      <autoFilter ref="$A$1:$J$311"/>
+    <customSheetView guid="{A581BE66-DC9E-4569-9F3B-2837E0B9BCA4}" filter="1" showAutoFilter="1">
+      <autoFilter ref="$A$1:$J$312"/>
     </customSheetView>
   </customSheetViews>
   <drawing r:id="rId2"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -7,12 +7,12 @@
   </sheets>
   <definedNames>
     <definedName name="GeocodeAddressColumn_Sheet1">Sheet1!$F$1</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$J$312</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_A581BE66_DC9E_4569_9F3B_2837E0B9BCA4_.wvu.FilterData">Sheet1!$A$1:$J$312</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$J$316</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_37F6A4DC_1E93_4B1E_A7C3_220175A7B02F_.wvu.FilterData">Sheet1!$A$1:$J$316</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" tabRatio="600" windowHeight="0" windowWidth="0" guid="{A581BE66-DC9E-4569-9F3B-2837E0B9BCA4}" name="Filter 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" tabRatio="600" windowHeight="0" windowWidth="0" guid="{37F6A4DC-1E93-4B1E-A7C3-220175A7B02F}" name="Filter 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="346">
   <si>
     <t>Start Date</t>
   </si>
@@ -1119,6 +1119,12 @@
   </si>
   <si>
     <t>Postsecondary State Policy Meeting</t>
+  </si>
+  <si>
+    <t>Census Equity Fund Meeting</t>
+  </si>
+  <si>
+    <t>SEDCOR Business Forum with Max Williams</t>
   </si>
 </sst>
 </file>
@@ -1251,7 +1257,7 @@
         <v>12</v>
       </c>
       <c r="F2" t="str">
-        <f t="shared" ref="F2:F312" si="1">D2&amp;" "&amp;E2</f>
+        <f t="shared" ref="F2:F316" si="1">D2&amp;" "&amp;E2</f>
         <v>Woodburn Oregon</v>
       </c>
       <c r="G2" s="2">
@@ -10565,47 +10571,127 @@
       <c r="J312" s="2"/>
     </row>
     <row r="313">
-      <c r="A313" s="1"/>
-      <c r="B313" s="1"/>
-      <c r="C313" s="2"/>
-      <c r="D313" s="2"/>
-      <c r="E313" s="2"/>
-      <c r="G313" s="2"/>
-      <c r="H313" s="2"/>
-      <c r="I313" s="2"/>
+      <c r="A313" s="1">
+        <v>43887.0</v>
+      </c>
+      <c r="B313" s="1">
+        <v>43887.0</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D313" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E313" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F313" t="str">
+        <f t="shared" si="1"/>
+        <v>Eugene OR</v>
+      </c>
+      <c r="G313" s="2">
+        <v>44.0520691</v>
+      </c>
+      <c r="H313" s="2">
+        <v>-123.0867536</v>
+      </c>
+      <c r="I313" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="J313" s="2"/>
     </row>
     <row r="314">
-      <c r="A314" s="1"/>
-      <c r="B314" s="1"/>
-      <c r="C314" s="2"/>
-      <c r="D314" s="2"/>
-      <c r="E314" s="2"/>
-      <c r="G314" s="2"/>
-      <c r="H314" s="2"/>
-      <c r="I314" s="2"/>
+      <c r="A314" s="1">
+        <v>43893.0</v>
+      </c>
+      <c r="B314" s="1">
+        <v>43893.0</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D314" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E314" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F314" t="str">
+        <f t="shared" si="1"/>
+        <v>Portland OR</v>
+      </c>
+      <c r="G314" s="2">
+        <v>45.5051064</v>
+      </c>
+      <c r="H314" s="2">
+        <v>-122.6750261</v>
+      </c>
+      <c r="I314" s="2" t="s">
+        <v>344</v>
+      </c>
       <c r="J314" s="2"/>
     </row>
     <row r="315">
-      <c r="A315" s="1"/>
-      <c r="B315" s="1"/>
-      <c r="C315" s="2"/>
-      <c r="D315" s="2"/>
-      <c r="E315" s="2"/>
-      <c r="G315" s="2"/>
-      <c r="H315" s="2"/>
-      <c r="I315" s="2"/>
+      <c r="A315" s="1">
+        <v>43901.0</v>
+      </c>
+      <c r="B315" s="1">
+        <v>43901.0</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D315" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E315" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F315" t="str">
+        <f t="shared" si="1"/>
+        <v>Salem OR</v>
+      </c>
+      <c r="G315" s="2">
+        <v>44.9428975</v>
+      </c>
+      <c r="H315" s="2">
+        <v>-123.0350963</v>
+      </c>
+      <c r="I315" s="2" t="s">
+        <v>345</v>
+      </c>
       <c r="J315" s="2"/>
     </row>
     <row r="316">
-      <c r="A316" s="1"/>
-      <c r="B316" s="1"/>
-      <c r="C316" s="2"/>
-      <c r="D316" s="2"/>
-      <c r="E316" s="2"/>
-      <c r="G316" s="2"/>
-      <c r="H316" s="2"/>
-      <c r="I316" s="2"/>
+      <c r="A316" s="1">
+        <v>43916.0</v>
+      </c>
+      <c r="B316" s="1">
+        <v>43916.0</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D316" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E316" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F316" t="str">
+        <f t="shared" si="1"/>
+        <v>Portland OR</v>
+      </c>
+      <c r="G316" s="2">
+        <v>45.5051064</v>
+      </c>
+      <c r="H316" s="2">
+        <v>-122.6750261</v>
+      </c>
+      <c r="I316" s="2" t="s">
+        <v>247</v>
+      </c>
       <c r="J316" s="2"/>
     </row>
     <row r="317">
@@ -19519,14 +19605,14 @@
       <c r="J1126" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$J$312">
-    <sortState ref="A1:J312">
-      <sortCondition ref="A1:A312"/>
+  <autoFilter ref="$A$1:$J$316">
+    <sortState ref="A1:J316">
+      <sortCondition ref="A1:A316"/>
     </sortState>
   </autoFilter>
   <customSheetViews>
-    <customSheetView guid="{A581BE66-DC9E-4569-9F3B-2837E0B9BCA4}" filter="1" showAutoFilter="1">
-      <autoFilter ref="$A$1:$J$312"/>
+    <customSheetView guid="{37F6A4DC-1E93-4B1E-A7C3-220175A7B02F}" filter="1" showAutoFilter="1">
+      <autoFilter ref="$A$1:$J$316"/>
     </customSheetView>
   </customSheetViews>
   <drawing r:id="rId2"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -7,12 +7,12 @@
   </sheets>
   <definedNames>
     <definedName name="GeocodeAddressColumn_Sheet1">Sheet1!$F$1</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$J$316</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_37F6A4DC_1E93_4B1E_A7C3_220175A7B02F_.wvu.FilterData">Sheet1!$A$1:$J$316</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$J$341</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_41F5DE84_736C_4CD6_80E7_ED034231284D_.wvu.FilterData">Sheet1!$A$1:$J$341</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" tabRatio="600" windowHeight="0" windowWidth="0" guid="{37F6A4DC-1E93-4B1E-A7C3-220175A7B02F}" name="Filter 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" tabRatio="600" windowHeight="0" windowWidth="0" guid="{41F5DE84-736C-4CD6-80E7-ED034231284D}" name="Filter 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="370">
   <si>
     <t>Start Date</t>
   </si>
@@ -1125,6 +1125,78 @@
   </si>
   <si>
     <t>SEDCOR Business Forum with Max Williams</t>
+  </si>
+  <si>
+    <t>South by Southwest Conference</t>
+  </si>
+  <si>
+    <t>PSS Retention Strategy, PSS Check-ins</t>
+  </si>
+  <si>
+    <t>Sagebrush Collaboration: How Harney County Defeated the Takeover of the Malheur Refuge</t>
+  </si>
+  <si>
+    <t>PSS Meetings</t>
+  </si>
+  <si>
+    <t>Kathleen/Rozalyn</t>
+  </si>
+  <si>
+    <t>Sacramento</t>
+  </si>
+  <si>
+    <t>HOLD California Association Local Economic Development Annual Conference</t>
+  </si>
+  <si>
+    <t>Federal Reserve Bank Board Head Office Board Meeting</t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>Boardman</t>
+  </si>
+  <si>
+    <t>Fortaleza Working Team</t>
+  </si>
+  <si>
+    <t>Ford Sons &amp; Daughters Interviews</t>
+  </si>
+  <si>
+    <t>PSS Retention Strategy/Check-ins</t>
+  </si>
+  <si>
+    <t>Ford Scholar Interviews</t>
+  </si>
+  <si>
+    <t>Ford Scholar Transfer Interviews</t>
+  </si>
+  <si>
+    <t>Kathleen/Roz/Yvette/Crystal</t>
+  </si>
+  <si>
+    <t>Mt Shasta</t>
+  </si>
+  <si>
+    <t>HOLD CED Convening &amp; Team Retreat</t>
+  </si>
+  <si>
+    <t>Scholarship Meeting @ Eugene Office</t>
+  </si>
+  <si>
+    <t>Board prep meeting with Andy Storment</t>
+  </si>
+  <si>
+    <t>Early Learning Council Meeting</t>
+  </si>
+  <si>
+    <t>HOLD Regards to Rural Conference</t>
+  </si>
+  <si>
+    <t>Scholarship Office</t>
+  </si>
+  <si>
+    <t>TFFF Board/Committee Meetings @ Eugene Office</t>
   </si>
 </sst>
 </file>
@@ -1134,13 +1206,28 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="M/d/yyyy"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font/>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1162,7 +1249,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1173,6 +1260,18 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1257,7 +1356,7 @@
         <v>12</v>
       </c>
       <c r="F2" t="str">
-        <f t="shared" ref="F2:F316" si="1">D2&amp;" "&amp;E2</f>
+        <f t="shared" ref="F2:F341" si="1">D2&amp;" "&amp;E2</f>
         <v>Woodburn Oregon</v>
       </c>
       <c r="G2" s="2">
@@ -10695,278 +10794,778 @@
       <c r="J316" s="2"/>
     </row>
     <row r="317">
-      <c r="A317" s="1"/>
-      <c r="B317" s="1"/>
-      <c r="C317" s="2"/>
-      <c r="D317" s="2"/>
-      <c r="E317" s="2"/>
-      <c r="G317" s="2"/>
-      <c r="H317" s="2"/>
-      <c r="I317" s="2"/>
+      <c r="A317" s="1">
+        <v>43899.0</v>
+      </c>
+      <c r="B317" s="1">
+        <v>43903.0</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D317" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E317" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F317" t="str">
+        <f t="shared" si="1"/>
+        <v>Austin TX</v>
+      </c>
+      <c r="G317" s="2">
+        <v>30.267153</v>
+      </c>
+      <c r="H317" s="2">
+        <v>-97.7430608</v>
+      </c>
+      <c r="I317" s="4" t="s">
+        <v>346</v>
+      </c>
       <c r="J317" s="2"/>
     </row>
     <row r="318">
-      <c r="A318" s="1"/>
-      <c r="B318" s="1"/>
-      <c r="C318" s="2"/>
-      <c r="D318" s="2"/>
-      <c r="E318" s="2"/>
-      <c r="G318" s="2"/>
-      <c r="H318" s="2"/>
-      <c r="I318" s="2"/>
+      <c r="A318" s="1">
+        <v>43901.0</v>
+      </c>
+      <c r="B318" s="1">
+        <v>43901.0</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D318" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E318" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F318" t="str">
+        <f t="shared" si="1"/>
+        <v>Salem OR</v>
+      </c>
+      <c r="G318" s="2">
+        <v>44.9428975</v>
+      </c>
+      <c r="H318" s="2">
+        <v>-123.0350963</v>
+      </c>
+      <c r="I318" s="5" t="s">
+        <v>345</v>
+      </c>
       <c r="J318" s="2"/>
     </row>
     <row r="319">
-      <c r="A319" s="1"/>
-      <c r="B319" s="1"/>
-      <c r="C319" s="2"/>
-      <c r="D319" s="2"/>
-      <c r="E319" s="2"/>
-      <c r="G319" s="2"/>
-      <c r="H319" s="2"/>
-      <c r="I319" s="2"/>
+      <c r="A319" s="1">
+        <v>43909.0</v>
+      </c>
+      <c r="B319" s="1">
+        <v>43909.0</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D319" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E319" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F319" t="str">
+        <f t="shared" si="1"/>
+        <v>Eugene OR</v>
+      </c>
+      <c r="G319" s="2">
+        <v>44.0520691</v>
+      </c>
+      <c r="H319" s="2">
+        <v>-123.0867536</v>
+      </c>
+      <c r="I319" s="6" t="s">
+        <v>347</v>
+      </c>
       <c r="J319" s="2"/>
     </row>
     <row r="320">
-      <c r="A320" s="1"/>
-      <c r="B320" s="1"/>
-      <c r="C320" s="2"/>
-      <c r="D320" s="2"/>
-      <c r="E320" s="2"/>
-      <c r="G320" s="2"/>
-      <c r="H320" s="2"/>
-      <c r="I320" s="2"/>
+      <c r="A320" s="1">
+        <v>43909.0</v>
+      </c>
+      <c r="B320" s="1">
+        <v>43909.0</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D320" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E320" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F320" t="str">
+        <f t="shared" si="1"/>
+        <v>Roseburg OR</v>
+      </c>
+      <c r="G320" s="2">
+        <v>43.216505</v>
+      </c>
+      <c r="H320" s="2">
+        <v>-123.3417381</v>
+      </c>
+      <c r="I320" s="6" t="s">
+        <v>348</v>
+      </c>
       <c r="J320" s="2"/>
     </row>
     <row r="321">
-      <c r="A321" s="1"/>
-      <c r="B321" s="1"/>
-      <c r="C321" s="2"/>
-      <c r="D321" s="2"/>
-      <c r="E321" s="2"/>
-      <c r="G321" s="2"/>
-      <c r="H321" s="2"/>
-      <c r="I321" s="2"/>
+      <c r="A321" s="1">
+        <v>43915.0</v>
+      </c>
+      <c r="B321" s="1">
+        <v>43915.0</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D321" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E321" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F321" t="str">
+        <f t="shared" si="1"/>
+        <v>Eugene OR</v>
+      </c>
+      <c r="G321" s="2">
+        <v>44.0520691</v>
+      </c>
+      <c r="H321" s="2">
+        <v>-123.0867536</v>
+      </c>
+      <c r="I321" s="5" t="s">
+        <v>349</v>
+      </c>
       <c r="J321" s="2"/>
     </row>
     <row r="322">
-      <c r="A322" s="1"/>
-      <c r="B322" s="1"/>
-      <c r="C322" s="2"/>
-      <c r="D322" s="2"/>
-      <c r="E322" s="2"/>
-      <c r="G322" s="2"/>
-      <c r="H322" s="2"/>
-      <c r="I322" s="2"/>
+      <c r="A322" s="1">
+        <v>43915.0</v>
+      </c>
+      <c r="B322" s="1">
+        <v>43917.0</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D322" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="E322" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F322" t="str">
+        <f t="shared" si="1"/>
+        <v>Sacramento CA</v>
+      </c>
+      <c r="G322" s="2">
+        <v>38.5815719</v>
+      </c>
+      <c r="H322" s="2">
+        <v>-121.4943996</v>
+      </c>
+      <c r="I322" s="5" t="s">
+        <v>352</v>
+      </c>
       <c r="J322" s="2"/>
     </row>
     <row r="323">
-      <c r="A323" s="1"/>
-      <c r="B323" s="1"/>
-      <c r="C323" s="2"/>
-      <c r="D323" s="2"/>
-      <c r="E323" s="2"/>
-      <c r="G323" s="2"/>
-      <c r="H323" s="2"/>
-      <c r="I323" s="2"/>
+      <c r="A323" s="1">
+        <v>43916.0</v>
+      </c>
+      <c r="B323" s="1">
+        <v>43916.0</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D323" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E323" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F323" t="str">
+        <f t="shared" si="1"/>
+        <v>Portland OR</v>
+      </c>
+      <c r="G323" s="2">
+        <v>45.5051064</v>
+      </c>
+      <c r="H323" s="2">
+        <v>-122.6750261</v>
+      </c>
+      <c r="I323" s="5" t="s">
+        <v>247</v>
+      </c>
       <c r="J323" s="2"/>
     </row>
     <row r="324">
-      <c r="A324" s="1"/>
-      <c r="B324" s="1"/>
-      <c r="C324" s="2"/>
-      <c r="D324" s="2"/>
-      <c r="E324" s="2"/>
-      <c r="G324" s="2"/>
-      <c r="H324" s="2"/>
-      <c r="I324" s="2"/>
+      <c r="A324" s="1">
+        <v>43922.0</v>
+      </c>
+      <c r="B324" s="1">
+        <v>43922.0</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D324" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E324" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F324" t="str">
+        <f t="shared" si="1"/>
+        <v>Portland OR</v>
+      </c>
+      <c r="G324" s="2">
+        <v>45.5051064</v>
+      </c>
+      <c r="H324" s="2">
+        <v>-122.6750261</v>
+      </c>
+      <c r="I324" s="5" t="s">
+        <v>247</v>
+      </c>
       <c r="J324" s="2"/>
     </row>
     <row r="325">
-      <c r="A325" s="1"/>
-      <c r="B325" s="1"/>
-      <c r="C325" s="2"/>
-      <c r="D325" s="2"/>
-      <c r="E325" s="2"/>
-      <c r="G325" s="2"/>
-      <c r="H325" s="2"/>
-      <c r="I325" s="2"/>
+      <c r="A325" s="1">
+        <v>43922.0</v>
+      </c>
+      <c r="B325" s="1">
+        <v>43924.0</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D325" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E325" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F325" t="str">
+        <f t="shared" si="1"/>
+        <v>San Francisco OR</v>
+      </c>
+      <c r="G325" s="2">
+        <v>37.7749295</v>
+      </c>
+      <c r="H325" s="2">
+        <v>-122.4194155</v>
+      </c>
+      <c r="I325" s="5" t="s">
+        <v>353</v>
+      </c>
       <c r="J325" s="2"/>
     </row>
     <row r="326">
-      <c r="A326" s="1"/>
-      <c r="B326" s="1"/>
-      <c r="C326" s="2"/>
-      <c r="D326" s="2"/>
-      <c r="E326" s="2"/>
-      <c r="G326" s="2"/>
-      <c r="H326" s="2"/>
-      <c r="I326" s="2"/>
+      <c r="A326" s="1">
+        <v>43924.0</v>
+      </c>
+      <c r="B326" s="1">
+        <v>43925.0</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D326" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E326" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F326" t="str">
+        <f t="shared" si="1"/>
+        <v>Boardman OR</v>
+      </c>
+      <c r="G326" s="2">
+        <v>45.839855</v>
+      </c>
+      <c r="H326" s="2">
+        <v>-119.7005834</v>
+      </c>
+      <c r="I326" s="5" t="s">
+        <v>356</v>
+      </c>
       <c r="J326" s="2"/>
     </row>
     <row r="327">
-      <c r="A327" s="1"/>
-      <c r="B327" s="1"/>
-      <c r="C327" s="2"/>
-      <c r="D327" s="2"/>
-      <c r="E327" s="2"/>
-      <c r="G327" s="2"/>
-      <c r="H327" s="2"/>
-      <c r="I327" s="2"/>
+      <c r="A327" s="1">
+        <v>43928.0</v>
+      </c>
+      <c r="B327" s="1">
+        <v>43928.0</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D327" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E327" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F327" t="str">
+        <f t="shared" si="1"/>
+        <v>Portland OR</v>
+      </c>
+      <c r="G327" s="2">
+        <v>45.5051064</v>
+      </c>
+      <c r="H327" s="2">
+        <v>-122.6750261</v>
+      </c>
+      <c r="I327" s="5" t="s">
+        <v>344</v>
+      </c>
       <c r="J327" s="2"/>
     </row>
     <row r="328">
-      <c r="A328" s="1"/>
-      <c r="B328" s="1"/>
-      <c r="C328" s="2"/>
-      <c r="D328" s="2"/>
-      <c r="E328" s="2"/>
-      <c r="G328" s="2"/>
-      <c r="H328" s="2"/>
-      <c r="I328" s="2"/>
+      <c r="A328" s="1">
+        <v>43935.0</v>
+      </c>
+      <c r="B328" s="1">
+        <v>43938.0</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D328" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E328" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F328" t="str">
+        <f t="shared" si="1"/>
+        <v>Roseburg OR</v>
+      </c>
+      <c r="G328" s="2">
+        <v>43.216505</v>
+      </c>
+      <c r="H328" s="2">
+        <v>-123.3417381</v>
+      </c>
+      <c r="I328" s="5" t="s">
+        <v>357</v>
+      </c>
       <c r="J328" s="2"/>
     </row>
     <row r="329">
-      <c r="A329" s="1"/>
-      <c r="B329" s="1"/>
-      <c r="C329" s="2"/>
-      <c r="D329" s="2"/>
-      <c r="E329" s="2"/>
-      <c r="G329" s="2"/>
-      <c r="H329" s="2"/>
-      <c r="I329" s="2"/>
+      <c r="A329" s="1">
+        <v>43937.0</v>
+      </c>
+      <c r="B329" s="1">
+        <v>43937.0</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D329" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E329" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F329" t="str">
+        <f t="shared" si="1"/>
+        <v>Eugene OR</v>
+      </c>
+      <c r="G329" s="2">
+        <v>44.0520691</v>
+      </c>
+      <c r="H329" s="2">
+        <v>-123.0867536</v>
+      </c>
+      <c r="I329" s="5" t="s">
+        <v>358</v>
+      </c>
       <c r="J329" s="2"/>
     </row>
     <row r="330">
-      <c r="A330" s="1"/>
-      <c r="B330" s="1"/>
-      <c r="C330" s="2"/>
-      <c r="D330" s="2"/>
-      <c r="E330" s="2"/>
-      <c r="G330" s="2"/>
-      <c r="H330" s="2"/>
-      <c r="I330" s="2"/>
+      <c r="A330" s="1">
+        <v>43942.0</v>
+      </c>
+      <c r="B330" s="1">
+        <v>43945.0</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D330" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E330" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F330" t="str">
+        <f t="shared" si="1"/>
+        <v>Ashland OR</v>
+      </c>
+      <c r="G330" s="2">
+        <v>42.1945758</v>
+      </c>
+      <c r="H330" s="2">
+        <v>-122.7094767</v>
+      </c>
+      <c r="I330" s="5" t="s">
+        <v>359</v>
+      </c>
       <c r="J330" s="2"/>
     </row>
     <row r="331">
-      <c r="A331" s="1"/>
-      <c r="B331" s="1"/>
-      <c r="C331" s="2"/>
-      <c r="D331" s="2"/>
-      <c r="E331" s="2"/>
-      <c r="G331" s="2"/>
-      <c r="H331" s="2"/>
-      <c r="I331" s="2"/>
+      <c r="A331" s="1">
+        <v>43942.0</v>
+      </c>
+      <c r="B331" s="1">
+        <v>43945.0</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D331" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E331" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F331" t="str">
+        <f t="shared" si="1"/>
+        <v>Eugene OR</v>
+      </c>
+      <c r="G331" s="2">
+        <v>44.0520691</v>
+      </c>
+      <c r="H331" s="2">
+        <v>-123.0867536</v>
+      </c>
+      <c r="I331" s="5" t="s">
+        <v>360</v>
+      </c>
       <c r="J331" s="2"/>
     </row>
     <row r="332">
-      <c r="A332" s="1"/>
-      <c r="B332" s="1"/>
-      <c r="C332" s="2"/>
-      <c r="D332" s="2"/>
-      <c r="E332" s="2"/>
-      <c r="G332" s="2"/>
-      <c r="H332" s="2"/>
-      <c r="I332" s="2"/>
+      <c r="A332" s="1">
+        <v>43943.0</v>
+      </c>
+      <c r="B332" s="1">
+        <v>43945.0</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D332" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E332" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F332" t="str">
+        <f t="shared" si="1"/>
+        <v>Mt Shasta CA</v>
+      </c>
+      <c r="G332" s="2">
+        <v>41.3098746</v>
+      </c>
+      <c r="H332" s="2">
+        <v>-122.3105666</v>
+      </c>
+      <c r="I332" s="5" t="s">
+        <v>363</v>
+      </c>
       <c r="J332" s="2"/>
     </row>
     <row r="333">
-      <c r="A333" s="1"/>
-      <c r="B333" s="1"/>
-      <c r="C333" s="2"/>
-      <c r="D333" s="2"/>
-      <c r="E333" s="2"/>
-      <c r="G333" s="2"/>
-      <c r="H333" s="2"/>
-      <c r="I333" s="2"/>
+      <c r="A333" s="1">
+        <v>43950.0</v>
+      </c>
+      <c r="B333" s="1">
+        <v>43950.0</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D333" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E333" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F333" t="str">
+        <f t="shared" si="1"/>
+        <v>Eugene OR</v>
+      </c>
+      <c r="G333" s="2">
+        <v>44.0520691</v>
+      </c>
+      <c r="H333" s="2">
+        <v>-123.0867536</v>
+      </c>
+      <c r="I333" s="5" t="s">
+        <v>364</v>
+      </c>
       <c r="J333" s="2"/>
     </row>
     <row r="334">
-      <c r="A334" s="1"/>
-      <c r="B334" s="1"/>
-      <c r="C334" s="2"/>
-      <c r="D334" s="2"/>
-      <c r="E334" s="2"/>
-      <c r="G334" s="2"/>
-      <c r="H334" s="2"/>
-      <c r="I334" s="2"/>
+      <c r="A334" s="1">
+        <v>43949.0</v>
+      </c>
+      <c r="B334" s="1">
+        <v>43951.0</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D334" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E334" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F334" t="str">
+        <f t="shared" si="1"/>
+        <v>Lake Oswego OR</v>
+      </c>
+      <c r="G334" s="2">
+        <v>45.415734</v>
+      </c>
+      <c r="H334" s="2">
+        <v>-122.7163273</v>
+      </c>
+      <c r="I334" s="5" t="s">
+        <v>359</v>
+      </c>
       <c r="J334" s="2"/>
     </row>
     <row r="335">
-      <c r="A335" s="1"/>
-      <c r="B335" s="1"/>
-      <c r="C335" s="2"/>
-      <c r="D335" s="2"/>
-      <c r="E335" s="2"/>
-      <c r="G335" s="2"/>
-      <c r="H335" s="2"/>
-      <c r="I335" s="2"/>
+      <c r="A335" s="1">
+        <v>43951.0</v>
+      </c>
+      <c r="B335" s="1">
+        <v>43951.0</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D335" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E335" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F335" t="str">
+        <f t="shared" si="1"/>
+        <v>Eugene OR</v>
+      </c>
+      <c r="G335" s="2">
+        <v>44.0520691</v>
+      </c>
+      <c r="H335" s="2">
+        <v>-123.0867536</v>
+      </c>
+      <c r="I335" s="5" t="s">
+        <v>365</v>
+      </c>
       <c r="J335" s="2"/>
     </row>
     <row r="336">
-      <c r="A336" s="1"/>
-      <c r="B336" s="1"/>
-      <c r="C336" s="2"/>
-      <c r="D336" s="2"/>
-      <c r="E336" s="2"/>
-      <c r="G336" s="2"/>
-      <c r="H336" s="2"/>
-      <c r="I336" s="2"/>
+      <c r="A336" s="1">
+        <v>43951.0</v>
+      </c>
+      <c r="B336" s="1">
+        <v>43951.0</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D336" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E336" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F336" t="str">
+        <f t="shared" si="1"/>
+        <v>Salem OR</v>
+      </c>
+      <c r="G336" s="2">
+        <v>44.9428975</v>
+      </c>
+      <c r="H336" s="2">
+        <v>-123.0350963</v>
+      </c>
+      <c r="I336" s="5" t="s">
+        <v>366</v>
+      </c>
       <c r="J336" s="2"/>
     </row>
     <row r="337">
-      <c r="A337" s="1"/>
-      <c r="B337" s="1"/>
-      <c r="C337" s="2"/>
-      <c r="D337" s="2"/>
-      <c r="E337" s="2"/>
-      <c r="G337" s="2"/>
-      <c r="H337" s="2"/>
-      <c r="I337" s="2"/>
+      <c r="A337" s="1">
+        <v>43949.0</v>
+      </c>
+      <c r="B337" s="1">
+        <v>43952.0</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D337" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E337" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F337" t="str">
+        <f t="shared" si="1"/>
+        <v>Eugene OR</v>
+      </c>
+      <c r="G337" s="2">
+        <v>44.0520691</v>
+      </c>
+      <c r="H337" s="2">
+        <v>-123.0867536</v>
+      </c>
+      <c r="I337" s="5" t="s">
+        <v>262</v>
+      </c>
       <c r="J337" s="2"/>
     </row>
     <row r="338">
-      <c r="A338" s="1"/>
-      <c r="B338" s="1"/>
-      <c r="C338" s="2"/>
-      <c r="D338" s="2"/>
-      <c r="E338" s="2"/>
-      <c r="G338" s="2"/>
-      <c r="H338" s="2"/>
-      <c r="I338" s="2"/>
+      <c r="A338" s="1">
+        <v>43952.0</v>
+      </c>
+      <c r="B338" s="1">
+        <v>43954.0</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D338" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E338" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F338" t="str">
+        <f t="shared" si="1"/>
+        <v>Sunriver OR</v>
+      </c>
+      <c r="G338" s="2">
+        <v>43.8693935</v>
+      </c>
+      <c r="H338" s="2">
+        <v>-121.4333539</v>
+      </c>
+      <c r="I338" s="5" t="s">
+        <v>367</v>
+      </c>
       <c r="J338" s="2"/>
     </row>
     <row r="339">
-      <c r="A339" s="1"/>
-      <c r="B339" s="1"/>
-      <c r="C339" s="2"/>
-      <c r="D339" s="2"/>
-      <c r="E339" s="2"/>
-      <c r="G339" s="2"/>
-      <c r="H339" s="2"/>
-      <c r="I339" s="2"/>
+      <c r="A339" s="1">
+        <v>43955.0</v>
+      </c>
+      <c r="B339" s="1">
+        <v>43958.0</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D339" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E339" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F339" t="str">
+        <f t="shared" si="1"/>
+        <v>Eugene OR</v>
+      </c>
+      <c r="G339" s="2">
+        <v>44.0520691</v>
+      </c>
+      <c r="H339" s="2">
+        <v>-123.0867536</v>
+      </c>
+      <c r="I339" s="5" t="s">
+        <v>359</v>
+      </c>
       <c r="J339" s="2"/>
     </row>
     <row r="340">
-      <c r="A340" s="1"/>
-      <c r="B340" s="1"/>
-      <c r="C340" s="2"/>
-      <c r="D340" s="2"/>
-      <c r="E340" s="2"/>
-      <c r="G340" s="2"/>
-      <c r="H340" s="2"/>
-      <c r="I340" s="2"/>
+      <c r="A340" s="1">
+        <v>43963.0</v>
+      </c>
+      <c r="B340" s="1">
+        <v>43966.0</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D340" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E340" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F340" t="str">
+        <f t="shared" si="1"/>
+        <v>Eugene OR</v>
+      </c>
+      <c r="G340" s="2">
+        <v>44.0520691</v>
+      </c>
+      <c r="H340" s="2">
+        <v>-123.0867536</v>
+      </c>
+      <c r="I340" s="6" t="s">
+        <v>269</v>
+      </c>
       <c r="J340" s="2"/>
     </row>
     <row r="341">
-      <c r="A341" s="1"/>
-      <c r="B341" s="1"/>
-      <c r="C341" s="2"/>
-      <c r="D341" s="2"/>
-      <c r="E341" s="2"/>
-      <c r="G341" s="2"/>
-      <c r="H341" s="2"/>
-      <c r="I341" s="2"/>
+      <c r="A341" s="1">
+        <v>43965.0</v>
+      </c>
+      <c r="B341" s="1">
+        <v>43966.0</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D341" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E341" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F341" t="str">
+        <f t="shared" si="1"/>
+        <v>Portland OR</v>
+      </c>
+      <c r="G341" s="2">
+        <v>45.5051064</v>
+      </c>
+      <c r="H341" s="2">
+        <v>-122.6750261</v>
+      </c>
+      <c r="I341" s="7" t="s">
+        <v>369</v>
+      </c>
       <c r="J341" s="2"/>
     </row>
     <row r="342">
@@ -19605,14 +20204,14 @@
       <c r="J1126" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$J$316">
-    <sortState ref="A1:J316">
-      <sortCondition ref="A1:A316"/>
+  <autoFilter ref="$A$1:$J$341">
+    <sortState ref="A1:J341">
+      <sortCondition ref="A1:A341"/>
     </sortState>
   </autoFilter>
   <customSheetViews>
-    <customSheetView guid="{37F6A4DC-1E93-4B1E-A7C3-220175A7B02F}" filter="1" showAutoFilter="1">
-      <autoFilter ref="$A$1:$J$316"/>
+    <customSheetView guid="{41F5DE84-736C-4CD6-80E7-ED034231284D}" filter="1" showAutoFilter="1">
+      <autoFilter ref="$A$1:$J$341"/>
     </customSheetView>
   </customSheetViews>
   <drawing r:id="rId2"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -7,12 +7,12 @@
   </sheets>
   <definedNames>
     <definedName name="GeocodeAddressColumn_Sheet1">Sheet1!$F$1</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$J$341</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_41F5DE84_736C_4CD6_80E7_ED034231284D_.wvu.FilterData">Sheet1!$A$1:$J$341</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$J$344</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_E610389D_4407_4D9C_8B51_D18C63F95582_.wvu.FilterData">Sheet1!$A$1:$J$344</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" tabRatio="600" windowHeight="0" windowWidth="0" guid="{41F5DE84-736C-4CD6-80E7-ED034231284D}" name="Filter 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" tabRatio="600" windowHeight="0" windowWidth="0" guid="{E610389D-4407-4D9C-8B51-D18C63F95582}" name="Filter 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="372">
   <si>
     <t>Start Date</t>
   </si>
@@ -1197,6 +1197,12 @@
   </si>
   <si>
     <t>TFFF Board/Committee Meetings @ Eugene Office</t>
+  </si>
+  <si>
+    <t>Federal Reserve Bank Board Meeting</t>
+  </si>
+  <si>
+    <t>Systems of Care Breakfast Meeting</t>
   </si>
 </sst>
 </file>
@@ -1356,7 +1362,7 @@
         <v>12</v>
       </c>
       <c r="F2" t="str">
-        <f t="shared" ref="F2:F341" si="1">D2&amp;" "&amp;E2</f>
+        <f t="shared" ref="F2:F344" si="1">D2&amp;" "&amp;E2</f>
         <v>Woodburn Oregon</v>
       </c>
       <c r="G2" s="2">
@@ -11569,36 +11575,96 @@
       <c r="J341" s="2"/>
     </row>
     <row r="342">
-      <c r="A342" s="1"/>
-      <c r="B342" s="1"/>
-      <c r="C342" s="2"/>
-      <c r="D342" s="2"/>
-      <c r="E342" s="2"/>
-      <c r="G342" s="2"/>
-      <c r="H342" s="2"/>
-      <c r="I342" s="2"/>
+      <c r="A342" s="1">
+        <v>43971.0</v>
+      </c>
+      <c r="B342" s="1">
+        <v>43971.0</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D342" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E342" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F342" t="str">
+        <f t="shared" si="1"/>
+        <v>Portland OR</v>
+      </c>
+      <c r="G342" s="2">
+        <v>45.5051064</v>
+      </c>
+      <c r="H342" s="2">
+        <v>-122.6750261</v>
+      </c>
+      <c r="I342" s="2" t="s">
+        <v>370</v>
+      </c>
       <c r="J342" s="2"/>
     </row>
     <row r="343">
-      <c r="A343" s="1"/>
-      <c r="B343" s="1"/>
-      <c r="C343" s="2"/>
-      <c r="D343" s="2"/>
-      <c r="E343" s="2"/>
-      <c r="G343" s="2"/>
-      <c r="H343" s="2"/>
-      <c r="I343" s="2"/>
+      <c r="A343" s="1">
+        <v>43971.0</v>
+      </c>
+      <c r="B343" s="1">
+        <v>43971.0</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D343" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E343" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F343" t="str">
+        <f t="shared" si="1"/>
+        <v>Salem OR</v>
+      </c>
+      <c r="G343" s="2">
+        <v>44.9428975</v>
+      </c>
+      <c r="H343" s="2">
+        <v>-123.0350963</v>
+      </c>
+      <c r="I343" s="2" t="s">
+        <v>338</v>
+      </c>
       <c r="J343" s="2"/>
     </row>
     <row r="344">
-      <c r="A344" s="1"/>
-      <c r="B344" s="1"/>
-      <c r="C344" s="2"/>
-      <c r="D344" s="2"/>
-      <c r="E344" s="2"/>
-      <c r="G344" s="2"/>
-      <c r="H344" s="2"/>
-      <c r="I344" s="2"/>
+      <c r="A344" s="1">
+        <v>43972.0</v>
+      </c>
+      <c r="B344" s="1">
+        <v>43972.0</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D344" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E344" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F344" t="str">
+        <f t="shared" si="1"/>
+        <v>Roseburg OR</v>
+      </c>
+      <c r="G344" s="2">
+        <v>43.216505</v>
+      </c>
+      <c r="H344" s="2">
+        <v>-123.3417381</v>
+      </c>
+      <c r="I344" s="2" t="s">
+        <v>371</v>
+      </c>
       <c r="J344" s="2"/>
     </row>
     <row r="345">
@@ -20204,14 +20270,14 @@
       <c r="J1126" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$J$341">
-    <sortState ref="A1:J341">
-      <sortCondition ref="A1:A341"/>
+  <autoFilter ref="$A$1:$J$344">
+    <sortState ref="A1:J344">
+      <sortCondition ref="A1:A344"/>
     </sortState>
   </autoFilter>
   <customSheetViews>
-    <customSheetView guid="{41F5DE84-736C-4CD6-80E7-ED034231284D}" filter="1" showAutoFilter="1">
-      <autoFilter ref="$A$1:$J$341"/>
+    <customSheetView guid="{E610389D-4407-4D9C-8B51-D18C63F95582}" filter="1" showAutoFilter="1">
+      <autoFilter ref="$A$1:$J$344"/>
     </customSheetView>
   </customSheetViews>
   <drawing r:id="rId2"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -7,12 +7,12 @@
   </sheets>
   <definedNames>
     <definedName name="GeocodeAddressColumn_Sheet1">Sheet1!$F$1</definedName>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$J$344</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_E610389D_4407_4D9C_8B51_D18C63F95582_.wvu.FilterData">Sheet1!$A$1:$J$344</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$J$346</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_634E0155_EE6A_445C_A5CB_A6CB17524FB8_.wvu.FilterData">Sheet1!$A$1:$J$346</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" tabRatio="600" windowHeight="0" windowWidth="0" guid="{E610389D-4407-4D9C-8B51-D18C63F95582}" name="Filter 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" tabRatio="600" windowHeight="0" windowWidth="0" guid="{634E0155-EE6A-445C-A5CB-A6CB17524FB8}" name="Filter 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="373">
   <si>
     <t>Start Date</t>
   </si>
@@ -1203,6 +1203,9 @@
   </si>
   <si>
     <t>Systems of Care Breakfast Meeting</t>
+  </si>
+  <si>
+    <t>Protect Our Children Annual Conference</t>
   </si>
 </sst>
 </file>
@@ -1362,7 +1365,7 @@
         <v>12</v>
       </c>
       <c r="F2" t="str">
-        <f t="shared" ref="F2:F344" si="1">D2&amp;" "&amp;E2</f>
+        <f t="shared" ref="F2:F346" si="1">D2&amp;" "&amp;E2</f>
         <v>Woodburn Oregon</v>
       </c>
       <c r="G2" s="2">
@@ -11668,25 +11671,65 @@
       <c r="J344" s="2"/>
     </row>
     <row r="345">
-      <c r="A345" s="1"/>
-      <c r="B345" s="1"/>
-      <c r="C345" s="2"/>
-      <c r="D345" s="2"/>
-      <c r="E345" s="2"/>
-      <c r="G345" s="2"/>
-      <c r="H345" s="2"/>
-      <c r="I345" s="2"/>
+      <c r="A345" s="1">
+        <v>43978.0</v>
+      </c>
+      <c r="B345" s="1">
+        <v>43978.0</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D345" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E345" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F345" t="str">
+        <f t="shared" si="1"/>
+        <v>Eugene OR</v>
+      </c>
+      <c r="G345" s="2">
+        <v>44.0520691</v>
+      </c>
+      <c r="H345" s="2">
+        <v>-123.0867536</v>
+      </c>
+      <c r="I345" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="J345" s="2"/>
     </row>
     <row r="346">
-      <c r="A346" s="1"/>
-      <c r="B346" s="1"/>
-      <c r="C346" s="2"/>
-      <c r="D346" s="2"/>
-      <c r="E346" s="2"/>
-      <c r="G346" s="2"/>
-      <c r="H346" s="2"/>
-      <c r="I346" s="2"/>
+      <c r="A346" s="1">
+        <v>43978.0</v>
+      </c>
+      <c r="B346" s="1">
+        <v>43980.0</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D346" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E346" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F346" t="str">
+        <f t="shared" si="1"/>
+        <v>Roseburg OR</v>
+      </c>
+      <c r="G346" s="2">
+        <v>43.216505</v>
+      </c>
+      <c r="H346" s="2">
+        <v>-123.3417381</v>
+      </c>
+      <c r="I346" s="2" t="s">
+        <v>372</v>
+      </c>
       <c r="J346" s="2"/>
     </row>
     <row r="347">
@@ -20270,14 +20313,14 @@
       <c r="J1126" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$J$344">
-    <sortState ref="A1:J344">
-      <sortCondition ref="A1:A344"/>
+  <autoFilter ref="$A$1:$J$346">
+    <sortState ref="A1:J346">
+      <sortCondition ref="A1:A346"/>
     </sortState>
   </autoFilter>
   <customSheetViews>
-    <customSheetView guid="{E610389D-4407-4D9C-8B51-D18C63F95582}" filter="1" showAutoFilter="1">
-      <autoFilter ref="$A$1:$J$344"/>
+    <customSheetView guid="{634E0155-EE6A-445C-A5CB-A6CB17524FB8}" filter="1" showAutoFilter="1">
+      <autoFilter ref="$A$1:$J$346"/>
     </customSheetView>
   </customSheetViews>
   <drawing r:id="rId2"/>
